--- a/nodes_source_analyses/energy/energy/energy_hydrogen_liquid_hydrogen_regasifier.xlsx
+++ b/nodes_source_analyses/energy/energy/energy_hydrogen_liquid_hydrogen_regasifier.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11207"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathijsbijkerk/Projects/etdataset/nodes_source_analyses/energy/energy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyradehaan/github/etdataset/nodes_source_analyses/energy/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74947015-3CDB-2848-A5DB-EC967EC89E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049D5F54-0318-0A4E-81CB-BEF4956F0A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21160" yWindow="-33340" windowWidth="30080" windowHeight="16100" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" tabRatio="762" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -47,7 +47,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="158">
   <si>
     <t>Source</t>
   </si>
@@ -469,15 +469,9 @@
     <t>Figure D: full load hours in energy transport costs comparison between hydrogen and electricity</t>
   </si>
   <si>
-    <t>hours</t>
-  </si>
-  <si>
     <t>Figure B</t>
   </si>
   <si>
-    <t>Figure D, assuming typical use of hydrogen pipelines</t>
-  </si>
-  <si>
     <t>Reconversion CAPEX</t>
   </si>
   <si>
@@ -590,6 +584,12 @@
   </si>
   <si>
     <t>energy_hydrogen_liquid_hydrogen_regasifier</t>
+  </si>
+  <si>
+    <t>Copied from energy_hydrogen_ammonia_reformer_must_run</t>
+  </si>
+  <si>
+    <t>Assumed to be operative 90% of the time, copied from energy_hydrogen_ammonia_reformer_must_run</t>
   </si>
 </sst>
 </file>
@@ -602,12 +602,19 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="&quot;€&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="44">
+  <fonts count="45">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1257,921 +1264,920 @@
   </borders>
   <cellStyleXfs count="601">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="13" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="14" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="14" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="13" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="14" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="14" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="219">
+  <cellXfs count="218">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="22" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="21" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="23" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="22" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="23" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="23" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="13" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="22" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="34" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="13" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="38" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="35" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="31" fillId="2" borderId="0" xfId="596" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="22" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="32" fillId="2" borderId="0" xfId="596" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="23" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="31" fillId="2" borderId="0" xfId="596" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="597" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="32" fillId="2" borderId="0" xfId="596" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="597" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="21" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="22" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="17" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="597" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="42" fillId="14" borderId="22" xfId="599" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="41" fillId="13" borderId="22" xfId="598"/>
-    <xf numFmtId="0" fontId="42" fillId="14" borderId="22" xfId="599"/>
-    <xf numFmtId="165" fontId="42" fillId="14" borderId="22" xfId="599" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="21" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="597" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="43" fillId="14" borderId="22" xfId="599" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="42" fillId="13" borderId="22" xfId="598"/>
+    <xf numFmtId="0" fontId="43" fillId="14" borderId="22" xfId="599"/>
+    <xf numFmtId="165" fontId="43" fillId="14" borderId="22" xfId="599" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="22" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="22" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="13" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="23" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="14" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="17" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="597" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="274" applyFill="1"/>
-    <xf numFmtId="165" fontId="41" fillId="13" borderId="22" xfId="598" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="43" fillId="14" borderId="23" xfId="600" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="43" fillId="14" borderId="23" xfId="600" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="14" borderId="23" xfId="600"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="597" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="274" applyFill="1"/>
+    <xf numFmtId="165" fontId="42" fillId="13" borderId="22" xfId="598" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="44" fillId="14" borderId="23" xfId="600" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="44" fillId="14" borderId="23" xfId="600" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="167" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="22" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="23" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2803,7 +2809,7 @@
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>520096</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2819,8 +2825,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="19812000" y="443288"/>
-          <a:ext cx="11899296" cy="10974012"/>
+          <a:off x="23126700" y="443288"/>
+          <a:ext cx="13855096" cy="10758112"/>
           <a:chOff x="23162381" y="447521"/>
           <a:chExt cx="13897429" cy="7252676"/>
         </a:xfrm>
@@ -2890,13 +2896,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>374953</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>155578</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2934,13 +2940,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>895048</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>193524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>947058</xdr:colOff>
-      <xdr:row>175</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>174172</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2956,8 +2962,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="19818048" y="33162724"/>
-          <a:ext cx="6490910" cy="2825448"/>
+          <a:off x="23069248" y="32946824"/>
+          <a:ext cx="7672010" cy="2825448"/>
           <a:chOff x="23452667" y="29149524"/>
           <a:chExt cx="7696200" cy="2859315"/>
         </a:xfrm>
@@ -3027,13 +3033,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>273351</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>185295</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3049,8 +3055,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="19812000" y="12026901"/>
-          <a:ext cx="13278151" cy="8529194"/>
+          <a:off x="23126700" y="11811001"/>
+          <a:ext cx="15513351" cy="8529194"/>
           <a:chOff x="23162381" y="9664096"/>
           <a:chExt cx="15561732" cy="8700342"/>
         </a:xfrm>
@@ -3178,13 +3184,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>302380</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>169333</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>524661</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:row>201</xdr:row>
       <xdr:rowOff>133047</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3787,12 +3793,12 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="29" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="21" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="21" customWidth="1"/>
-    <col min="4" max="16384" width="10.6640625" style="21"/>
+    <col min="1" max="1" width="3.42578125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="21" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="27" customFormat="1">
@@ -3818,7 +3824,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3836,7 +3842,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3965,49 +3971,49 @@
   </sheetPr>
   <dimension ref="A2:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.5" style="33" customWidth="1"/>
-    <col min="3" max="3" width="54.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="33" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="33" customWidth="1"/>
+    <col min="3" max="3" width="54.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="33" customWidth="1"/>
     <col min="5" max="5" width="13" style="33" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="33" customWidth="1"/>
-    <col min="7" max="7" width="43.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="33" customWidth="1"/>
-    <col min="9" max="9" width="42.5" style="33" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="33" customWidth="1"/>
-    <col min="11" max="16384" width="10.6640625" style="33"/>
+    <col min="6" max="6" width="4.42578125" style="33" customWidth="1"/>
+    <col min="7" max="7" width="43.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="33" customWidth="1"/>
+    <col min="9" max="9" width="42.42578125" style="33" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="33" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="33"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12">
-      <c r="B2" s="209" t="s">
+      <c r="B2" s="208" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="211"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="210"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="B3" s="212"/>
-      <c r="C3" s="213"/>
-      <c r="D3" s="213"/>
-      <c r="E3" s="214"/>
+      <c r="B3" s="211"/>
+      <c r="C3" s="212"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="213"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="B4" s="212"/>
-      <c r="C4" s="213"/>
-      <c r="D4" s="213"/>
-      <c r="E4" s="214"/>
+      <c r="B4" s="211"/>
+      <c r="C4" s="212"/>
+      <c r="D4" s="212"/>
+      <c r="E4" s="213"/>
     </row>
     <row r="5" spans="1:12" ht="36" customHeight="1">
-      <c r="B5" s="215"/>
-      <c r="C5" s="216"/>
-      <c r="D5" s="216"/>
-      <c r="E5" s="217"/>
+      <c r="B5" s="214"/>
+      <c r="C5" s="215"/>
+      <c r="D5" s="215"/>
+      <c r="E5" s="216"/>
     </row>
     <row r="7" spans="1:12" ht="17" thickBot="1"/>
     <row r="8" spans="1:12">
@@ -4057,20 +4063,20 @@
     </row>
     <row r="12" spans="1:12" s="12" customFormat="1" ht="17" thickBot="1">
       <c r="B12" s="24"/>
-      <c r="C12" s="172" t="s">
+      <c r="C12" s="171" t="s">
         <v>95</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="207">
+      <c r="E12" s="205">
         <f>'Research data'!F7</f>
         <v>1</v>
       </c>
       <c r="F12" s="36"/>
       <c r="G12" s="86"/>
       <c r="H12" s="30"/>
-      <c r="I12" s="206" t="s">
+      <c r="I12" s="204" t="s">
         <v>109</v>
       </c>
       <c r="J12" s="13"/>
@@ -4078,20 +4084,20 @@
     </row>
     <row r="13" spans="1:12" s="12" customFormat="1" ht="17" thickBot="1">
       <c r="B13" s="24"/>
-      <c r="C13" s="199" t="s">
-        <v>124</v>
+      <c r="C13" s="198" t="s">
+        <v>122</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="207">
+      <c r="E13" s="205">
         <f>'Research data'!F8</f>
         <v>0</v>
       </c>
       <c r="F13" s="36"/>
       <c r="G13" s="86"/>
       <c r="H13" s="30"/>
-      <c r="I13" s="206" t="s">
+      <c r="I13" s="204" t="s">
         <v>109</v>
       </c>
       <c r="J13" s="13"/>
@@ -4099,13 +4105,13 @@
     </row>
     <row r="14" spans="1:12" s="12" customFormat="1" ht="17" thickBot="1">
       <c r="B14" s="24"/>
-      <c r="C14" s="131" t="s">
+      <c r="C14" s="130" t="s">
         <v>49</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="207">
+      <c r="E14" s="205">
         <f>'Research data'!F9</f>
         <v>0.98599999999999999</v>
       </c>
@@ -4114,38 +4120,38 @@
         <v>46</v>
       </c>
       <c r="H14" s="30"/>
-      <c r="I14" s="206" t="s">
+      <c r="I14" s="204" t="s">
         <v>109</v>
       </c>
       <c r="J14" s="13"/>
       <c r="L14" s="33"/>
     </row>
     <row r="15" spans="1:12" ht="17" thickBot="1">
-      <c r="A15" s="88"/>
-      <c r="B15" s="89"/>
-      <c r="C15" s="126" t="s">
+      <c r="A15" s="87"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="125" t="s">
         <v>71</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="132">
+      <c r="E15" s="131">
         <f>'Research data'!F10</f>
         <v>3523</v>
       </c>
       <c r="F15" s="86"/>
-      <c r="G15" s="126" t="s">
+      <c r="G15" s="125" t="s">
         <v>72</v>
       </c>
       <c r="H15" s="86"/>
-      <c r="I15" s="206" t="s">
+      <c r="I15" s="204" t="s">
         <v>109</v>
       </c>
-      <c r="J15" s="91"/>
+      <c r="J15" s="90"/>
       <c r="K15" s="12"/>
     </row>
     <row r="16" spans="1:12" ht="17" thickBot="1">
-      <c r="B16" s="89"/>
+      <c r="B16" s="88"/>
       <c r="C16" s="86" t="s">
         <v>51</v>
       </c>
@@ -4158,14 +4164,14 @@
       <c r="F16" s="86"/>
       <c r="G16" s="86"/>
       <c r="H16" s="86"/>
-      <c r="I16" s="169" t="s">
+      <c r="I16" s="168" t="s">
         <v>76</v>
       </c>
-      <c r="J16" s="91"/>
+      <c r="J16" s="90"/>
     </row>
     <row r="17" spans="1:11" ht="17" thickBot="1">
-      <c r="B17" s="89"/>
-      <c r="C17" s="131" t="s">
+      <c r="B17" s="88"/>
+      <c r="C17" s="130" t="s">
         <v>90</v>
       </c>
       <c r="D17" s="22" t="s">
@@ -4173,19 +4179,19 @@
       </c>
       <c r="E17" s="38">
         <f>'Research data'!F12</f>
-        <v>4690</v>
+        <v>7884</v>
       </c>
       <c r="F17" s="86"/>
       <c r="G17" s="86"/>
       <c r="H17" s="86"/>
-      <c r="I17" s="185" t="s">
-        <v>97</v>
-      </c>
-      <c r="J17" s="91"/>
+      <c r="I17" s="207" t="s">
+        <v>156</v>
+      </c>
+      <c r="J17" s="90"/>
     </row>
     <row r="18" spans="1:11">
       <c r="B18" s="37"/>
-      <c r="I18" s="129"/>
+      <c r="I18" s="128"/>
       <c r="J18" s="78"/>
     </row>
     <row r="19" spans="1:11" ht="17" thickBot="1">
@@ -4193,7 +4199,7 @@
       <c r="C19" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I19" s="129"/>
+      <c r="I19" s="128"/>
       <c r="J19" s="78"/>
     </row>
     <row r="20" spans="1:11" ht="17" thickBot="1">
@@ -4204,7 +4210,7 @@
       <c r="D20" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="186">
+      <c r="E20" s="185">
         <f>'Research data'!F15</f>
         <v>948706597</v>
       </c>
@@ -4213,7 +4219,7 @@
         <v>6</v>
       </c>
       <c r="H20" s="36"/>
-      <c r="I20" s="206" t="s">
+      <c r="I20" s="204" t="s">
         <v>97</v>
       </c>
       <c r="J20" s="78"/>
@@ -4224,9 +4230,9 @@
         <v>21</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="E21" s="186">
+        <v>142</v>
+      </c>
+      <c r="E21" s="185">
         <f>'Research data'!F16</f>
         <v>23717665</v>
       </c>
@@ -4235,193 +4241,193 @@
         <v>23</v>
       </c>
       <c r="H21" s="36"/>
-      <c r="I21" s="185" t="s">
+      <c r="I21" s="184" t="s">
         <v>97</v>
       </c>
       <c r="J21" s="78"/>
     </row>
     <row r="22" spans="1:11" ht="17" thickBot="1">
-      <c r="B22" s="107"/>
-      <c r="C22" s="127" t="s">
+      <c r="B22" s="106"/>
+      <c r="C22" s="126" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="109" t="s">
+      <c r="D22" s="108" t="s">
         <v>61</v>
       </c>
       <c r="E22" s="85">
         <f>'Research data'!F17</f>
         <v>0</v>
       </c>
-      <c r="F22" s="110"/>
-      <c r="G22" s="108" t="s">
+      <c r="F22" s="109"/>
+      <c r="G22" s="107" t="s">
         <v>62</v>
       </c>
-      <c r="H22" s="110"/>
-      <c r="I22" s="170" t="s">
+      <c r="H22" s="109"/>
+      <c r="I22" s="169" t="s">
         <v>76</v>
       </c>
-      <c r="J22" s="111"/>
+      <c r="J22" s="110"/>
     </row>
     <row r="23" spans="1:11" ht="17" thickBot="1">
-      <c r="A23" s="112"/>
-      <c r="B23" s="114"/>
-      <c r="C23" s="115" t="s">
+      <c r="A23" s="111"/>
+      <c r="B23" s="113"/>
+      <c r="C23" s="114" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="109"/>
+      <c r="D23" s="108"/>
       <c r="E23" s="38">
         <v>0</v>
       </c>
-      <c r="F23" s="115"/>
-      <c r="G23" s="115" t="s">
+      <c r="F23" s="114"/>
+      <c r="G23" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="H23" s="115"/>
-      <c r="I23" s="133" t="s">
+      <c r="H23" s="114"/>
+      <c r="I23" s="132" t="s">
         <v>77</v>
       </c>
-      <c r="J23" s="116"/>
+      <c r="J23" s="115"/>
     </row>
     <row r="24" spans="1:11" ht="17" thickBot="1">
-      <c r="A24" s="112"/>
-      <c r="B24" s="114"/>
-      <c r="C24" s="115" t="s">
+      <c r="A24" s="111"/>
+      <c r="B24" s="113"/>
+      <c r="C24" s="114" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="109"/>
+      <c r="D24" s="108"/>
       <c r="E24" s="38">
         <f>'Research data'!F18</f>
         <v>0</v>
       </c>
-      <c r="F24" s="115"/>
-      <c r="G24" s="115" t="s">
+      <c r="F24" s="114"/>
+      <c r="G24" s="114" t="s">
         <v>66</v>
       </c>
-      <c r="H24" s="115"/>
-      <c r="I24" s="206" t="s">
+      <c r="H24" s="114"/>
+      <c r="I24" s="204" t="s">
         <v>76</v>
       </c>
-      <c r="J24" s="116"/>
-      <c r="K24" s="112"/>
+      <c r="J24" s="115"/>
+      <c r="K24" s="111"/>
     </row>
     <row r="25" spans="1:11" ht="17" thickBot="1">
-      <c r="A25" s="112"/>
-      <c r="B25" s="114"/>
-      <c r="C25" s="127" t="s">
+      <c r="A25" s="111"/>
+      <c r="B25" s="113"/>
+      <c r="C25" s="126" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="109"/>
+      <c r="D25" s="108"/>
       <c r="E25" s="38">
         <v>0</v>
       </c>
-      <c r="F25" s="115"/>
-      <c r="G25" s="115" t="s">
+      <c r="F25" s="114"/>
+      <c r="G25" s="114" t="s">
         <v>67</v>
       </c>
-      <c r="H25" s="115"/>
-      <c r="I25" s="170" t="s">
+      <c r="H25" s="114"/>
+      <c r="I25" s="169" t="s">
         <v>76</v>
       </c>
-      <c r="J25" s="116"/>
-      <c r="K25" s="112"/>
+      <c r="J25" s="115"/>
+      <c r="K25" s="111"/>
     </row>
     <row r="26" spans="1:11" ht="17" thickBot="1">
-      <c r="A26" s="112"/>
-      <c r="B26" s="114"/>
-      <c r="C26" s="115" t="s">
+      <c r="A26" s="111"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="114" t="s">
         <v>68</v>
       </c>
-      <c r="D26" s="109"/>
+      <c r="D26" s="108"/>
       <c r="E26" s="38">
         <v>0</v>
       </c>
-      <c r="F26" s="115"/>
-      <c r="G26" s="113" t="s">
+      <c r="F26" s="114"/>
+      <c r="G26" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="H26" s="115"/>
-      <c r="I26" s="133" t="s">
+      <c r="H26" s="114"/>
+      <c r="I26" s="132" t="s">
         <v>77</v>
       </c>
-      <c r="J26" s="116"/>
-      <c r="K26" s="112"/>
+      <c r="J26" s="115"/>
+      <c r="K26" s="111"/>
     </row>
     <row r="27" spans="1:11" ht="17" thickBot="1">
-      <c r="A27" s="88"/>
-      <c r="B27" s="89"/>
+      <c r="A27" s="87"/>
+      <c r="B27" s="88"/>
       <c r="C27" s="86" t="s">
         <v>53</v>
       </c>
       <c r="D27" s="22"/>
-      <c r="E27" s="90">
+      <c r="E27" s="89">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F27" s="86"/>
-      <c r="G27" s="199" t="s">
-        <v>143</v>
+      <c r="G27" s="198" t="s">
+        <v>141</v>
       </c>
       <c r="H27" s="86"/>
-      <c r="I27" s="130" t="s">
+      <c r="I27" s="129" t="s">
         <v>93</v>
       </c>
-      <c r="J27" s="91"/>
-      <c r="K27" s="112"/>
+      <c r="J27" s="90"/>
+      <c r="K27" s="111"/>
     </row>
     <row r="28" spans="1:11" ht="17" thickBot="1">
-      <c r="A28" s="88"/>
-      <c r="B28" s="89"/>
-      <c r="C28" s="171" t="s">
+      <c r="A28" s="87"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="170" t="s">
         <v>54</v>
       </c>
       <c r="D28" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="168">
+      <c r="E28" s="167">
         <v>1</v>
       </c>
       <c r="F28" s="86"/>
       <c r="G28" s="86"/>
       <c r="H28" s="86"/>
-      <c r="I28" s="170" t="s">
+      <c r="I28" s="169" t="s">
         <v>76</v>
       </c>
-      <c r="J28" s="91"/>
+      <c r="J28" s="90"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="88"/>
-      <c r="B29" s="89"/>
+      <c r="A29" s="87"/>
+      <c r="B29" s="88"/>
       <c r="C29" s="86"/>
       <c r="D29" s="22"/>
-      <c r="E29" s="94"/>
+      <c r="E29" s="93"/>
       <c r="F29" s="86"/>
       <c r="G29" s="86"/>
       <c r="H29" s="86"/>
-      <c r="I29" s="129"/>
-      <c r="J29" s="91"/>
+      <c r="I29" s="128"/>
+      <c r="J29" s="90"/>
     </row>
     <row r="30" spans="1:11" ht="17" thickBot="1">
-      <c r="A30" s="88"/>
-      <c r="B30" s="89"/>
+      <c r="A30" s="87"/>
+      <c r="B30" s="88"/>
       <c r="C30" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="79"/>
-      <c r="E30" s="94"/>
-      <c r="F30" s="88"/>
-      <c r="H30" s="88"/>
-      <c r="I30" s="129"/>
-      <c r="J30" s="91"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="87"/>
+      <c r="H30" s="87"/>
+      <c r="I30" s="128"/>
+      <c r="J30" s="90"/>
     </row>
     <row r="31" spans="1:11" ht="17" thickBot="1">
-      <c r="A31" s="88"/>
-      <c r="B31" s="89"/>
+      <c r="A31" s="87"/>
+      <c r="B31" s="88"/>
       <c r="C31" s="86" t="s">
         <v>22</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="E31" s="92">
+        <v>140</v>
+      </c>
+      <c r="E31" s="91">
         <f>'Research data'!F22</f>
         <v>40</v>
       </c>
@@ -4430,21 +4436,21 @@
         <v>58</v>
       </c>
       <c r="H31" s="86"/>
-      <c r="I31" s="133" t="s">
+      <c r="I31" s="132" t="s">
         <v>76</v>
       </c>
-      <c r="J31" s="91"/>
+      <c r="J31" s="90"/>
     </row>
     <row r="32" spans="1:11" ht="17" thickBot="1">
-      <c r="A32" s="88"/>
-      <c r="B32" s="89"/>
+      <c r="A32" s="87"/>
+      <c r="B32" s="88"/>
       <c r="C32" s="86" t="s">
         <v>56</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="E32" s="92">
+        <v>140</v>
+      </c>
+      <c r="E32" s="91">
         <v>0</v>
       </c>
       <c r="F32" s="86"/>
@@ -4452,142 +4458,142 @@
         <v>57</v>
       </c>
       <c r="H32" s="86"/>
-      <c r="I32" s="133" t="s">
+      <c r="I32" s="132" t="s">
         <v>76</v>
       </c>
-      <c r="J32" s="91"/>
+      <c r="J32" s="90"/>
     </row>
     <row r="33" spans="1:10" ht="17" thickBot="1">
-      <c r="A33" s="88"/>
-      <c r="B33" s="89"/>
-      <c r="C33" s="131" t="s">
+      <c r="A33" s="87"/>
+      <c r="B33" s="88"/>
+      <c r="C33" s="130" t="s">
         <v>19</v>
       </c>
       <c r="D33" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E33" s="92">
+      <c r="E33" s="91">
         <v>0</v>
       </c>
       <c r="F33" s="86"/>
       <c r="G33" s="86"/>
       <c r="H33" s="86"/>
-      <c r="I33" s="133" t="s">
+      <c r="I33" s="132" t="s">
         <v>76</v>
       </c>
-      <c r="J33" s="91"/>
+      <c r="J33" s="90"/>
     </row>
     <row r="34" spans="1:10" ht="17" thickBot="1">
-      <c r="A34" s="88"/>
-      <c r="B34" s="95"/>
-      <c r="C34" s="96"/>
-      <c r="D34" s="96"/>
-      <c r="E34" s="96"/>
-      <c r="F34" s="96"/>
-      <c r="G34" s="96"/>
-      <c r="H34" s="96"/>
-      <c r="I34" s="96"/>
-      <c r="J34" s="97"/>
+      <c r="A34" s="87"/>
+      <c r="B34" s="94"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="95"/>
+      <c r="E34" s="95"/>
+      <c r="F34" s="95"/>
+      <c r="G34" s="95"/>
+      <c r="H34" s="95"/>
+      <c r="I34" s="95"/>
+      <c r="J34" s="96"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="88"/>
-      <c r="B35" s="88"/>
-      <c r="C35" s="88"/>
-      <c r="D35" s="88"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="88"/>
-      <c r="G35" s="88"/>
-      <c r="H35" s="88"/>
-      <c r="I35" s="88"/>
-      <c r="J35" s="88"/>
+      <c r="A35" s="87"/>
+      <c r="B35" s="87"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="87"/>
+      <c r="H35" s="87"/>
+      <c r="I35" s="87"/>
+      <c r="J35" s="87"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="88"/>
-      <c r="B36" s="88"/>
-      <c r="C36" s="88"/>
-      <c r="D36" s="88"/>
-      <c r="E36" s="88"/>
-      <c r="F36" s="88"/>
-      <c r="G36" s="88"/>
-      <c r="H36" s="88"/>
-      <c r="I36" s="88"/>
-      <c r="J36" s="88"/>
+      <c r="A36" s="87"/>
+      <c r="B36" s="87"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="87"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="87"/>
+      <c r="J36" s="87"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="88"/>
-      <c r="B37" s="88"/>
-      <c r="C37" s="88"/>
-      <c r="D37" s="88"/>
-      <c r="E37" s="88"/>
-      <c r="F37" s="88"/>
-      <c r="G37" s="88"/>
-      <c r="H37" s="88"/>
-      <c r="I37" s="88"/>
-      <c r="J37" s="88"/>
+      <c r="A37" s="87"/>
+      <c r="B37" s="87"/>
+      <c r="C37" s="87"/>
+      <c r="D37" s="87"/>
+      <c r="E37" s="87"/>
+      <c r="F37" s="87"/>
+      <c r="G37" s="87"/>
+      <c r="H37" s="87"/>
+      <c r="I37" s="87"/>
+      <c r="J37" s="87"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="88"/>
-      <c r="B38" s="88"/>
-      <c r="E38" s="88"/>
-      <c r="F38" s="88"/>
-      <c r="G38" s="88"/>
-      <c r="H38" s="88"/>
-      <c r="I38" s="88"/>
-      <c r="J38" s="88"/>
+      <c r="A38" s="87"/>
+      <c r="B38" s="87"/>
+      <c r="E38" s="87"/>
+      <c r="F38" s="87"/>
+      <c r="G38" s="87"/>
+      <c r="H38" s="87"/>
+      <c r="I38" s="87"/>
+      <c r="J38" s="87"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="88"/>
-      <c r="B39" s="88"/>
-      <c r="C39" s="88"/>
-      <c r="D39" s="88"/>
-      <c r="E39" s="88"/>
-      <c r="F39" s="88"/>
-      <c r="G39" s="88"/>
-      <c r="H39" s="88"/>
-      <c r="I39" s="88"/>
-      <c r="J39" s="88"/>
+      <c r="A39" s="87"/>
+      <c r="B39" s="87"/>
+      <c r="C39" s="87"/>
+      <c r="D39" s="87"/>
+      <c r="E39" s="87"/>
+      <c r="F39" s="87"/>
+      <c r="G39" s="87"/>
+      <c r="H39" s="87"/>
+      <c r="I39" s="87"/>
+      <c r="J39" s="87"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="88"/>
-      <c r="B40" s="88"/>
-      <c r="C40" s="88"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="88"/>
-      <c r="F40" s="88"/>
-      <c r="G40" s="88"/>
-      <c r="H40" s="88"/>
-      <c r="I40" s="88"/>
-      <c r="J40" s="88"/>
+      <c r="A40" s="87"/>
+      <c r="B40" s="87"/>
+      <c r="C40" s="87"/>
+      <c r="D40" s="87"/>
+      <c r="E40" s="87"/>
+      <c r="F40" s="87"/>
+      <c r="G40" s="87"/>
+      <c r="H40" s="87"/>
+      <c r="I40" s="87"/>
+      <c r="J40" s="87"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="88"/>
-      <c r="B41" s="88"/>
-      <c r="C41" s="88"/>
-      <c r="D41" s="88"/>
-      <c r="E41" s="88"/>
-      <c r="F41" s="88"/>
-      <c r="G41" s="88"/>
-      <c r="H41" s="88"/>
-      <c r="I41" s="88"/>
-      <c r="J41" s="88"/>
+      <c r="A41" s="87"/>
+      <c r="B41" s="87"/>
+      <c r="C41" s="87"/>
+      <c r="D41" s="87"/>
+      <c r="E41" s="87"/>
+      <c r="F41" s="87"/>
+      <c r="G41" s="87"/>
+      <c r="H41" s="87"/>
+      <c r="I41" s="87"/>
+      <c r="J41" s="87"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="88"/>
-      <c r="B42" s="88"/>
-      <c r="C42" s="88"/>
-      <c r="D42" s="88"/>
-      <c r="E42" s="88"/>
-      <c r="F42" s="88"/>
-      <c r="G42" s="88"/>
-      <c r="H42" s="88"/>
-      <c r="I42" s="88"/>
-      <c r="J42" s="88"/>
+      <c r="A42" s="87"/>
+      <c r="B42" s="87"/>
+      <c r="C42" s="87"/>
+      <c r="D42" s="87"/>
+      <c r="E42" s="87"/>
+      <c r="F42" s="87"/>
+      <c r="G42" s="87"/>
+      <c r="H42" s="87"/>
+      <c r="I42" s="87"/>
+      <c r="J42" s="87"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="88"/>
+      <c r="A43" s="87"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="88"/>
+      <c r="A44" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4605,30 +4611,30 @@
   </sheetPr>
   <dimension ref="A2:O24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="39" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="39" customWidth="1"/>
     <col min="2" max="2" width="3" style="39" customWidth="1"/>
     <col min="3" max="3" width="45" style="39" customWidth="1"/>
     <col min="4" max="4" width="10" style="39" customWidth="1"/>
     <col min="5" max="5" width="3" style="39" customWidth="1"/>
-    <col min="6" max="6" width="22.83203125" style="39" customWidth="1"/>
-    <col min="7" max="7" width="2.5" style="39" customWidth="1"/>
-    <col min="8" max="8" width="22.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.1640625" style="39" customWidth="1"/>
-    <col min="10" max="10" width="22.5" style="39" customWidth="1"/>
-    <col min="11" max="11" width="5.1640625" style="39" customWidth="1"/>
-    <col min="12" max="12" width="22.5" style="39" customWidth="1"/>
-    <col min="13" max="13" width="2.5" style="39" customWidth="1"/>
-    <col min="14" max="14" width="33.1640625" style="39" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" style="39" customWidth="1"/>
+    <col min="7" max="7" width="2.42578125" style="39" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.140625" style="39" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" style="39" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" style="39" customWidth="1"/>
+    <col min="12" max="12" width="22.42578125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="2.42578125" style="39" customWidth="1"/>
+    <col min="14" max="14" width="33.140625" style="39" customWidth="1"/>
     <col min="15" max="15" width="11" style="39" customWidth="1"/>
-    <col min="16" max="16" width="2.5" style="39" customWidth="1"/>
-    <col min="17" max="17" width="22.5" style="39" customWidth="1"/>
-    <col min="18" max="16384" width="10.6640625" style="39"/>
+    <col min="16" max="16" width="2.42578125" style="39" customWidth="1"/>
+    <col min="17" max="17" width="22.42578125" style="39" customWidth="1"/>
+    <col min="18" max="16384" width="10.7109375" style="39"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="17" thickBot="1"/>
@@ -4646,7 +4652,7 @@
       <c r="L3" s="41"/>
       <c r="M3" s="41"/>
       <c r="N3" s="41"/>
-      <c r="O3" s="142"/>
+      <c r="O3" s="141"/>
     </row>
     <row r="4" spans="1:15" s="12" customFormat="1">
       <c r="B4" s="24"/>
@@ -4667,7 +4673,7 @@
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K4" s="14"/>
       <c r="L4" s="14" t="str">
@@ -4691,8 +4697,8 @@
       <c r="K5" s="43"/>
       <c r="L5" s="43"/>
       <c r="M5" s="43"/>
-      <c r="N5" s="143"/>
-      <c r="O5" s="144"/>
+      <c r="N5" s="142"/>
+      <c r="O5" s="143"/>
     </row>
     <row r="6" spans="1:15" ht="18" customHeight="1" thickBot="1">
       <c r="B6" s="42"/>
@@ -4709,15 +4715,15 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
-      <c r="N6" s="145"/>
-      <c r="O6" s="144"/>
+      <c r="N6" s="144"/>
+      <c r="O6" s="143"/>
     </row>
     <row r="7" spans="1:15" ht="17" thickBot="1">
       <c r="B7" s="42"/>
-      <c r="C7" s="172" t="s">
+      <c r="C7" s="171" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="165" t="s">
+      <c r="D7" s="164" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="76"/>
@@ -4726,39 +4732,39 @@
         <v>1</v>
       </c>
       <c r="G7" s="43"/>
-      <c r="H7" s="204"/>
-      <c r="I7" s="202"/>
-      <c r="K7" s="202"/>
+      <c r="H7" s="202"/>
+      <c r="I7" s="200"/>
+      <c r="K7" s="200"/>
       <c r="L7" s="84">
         <f>Notes!G36</f>
         <v>1</v>
       </c>
       <c r="M7" s="43"/>
-      <c r="N7" s="146"/>
-      <c r="O7" s="144"/>
+      <c r="N7" s="145"/>
+      <c r="O7" s="143"/>
     </row>
     <row r="8" spans="1:15" ht="17" thickBot="1">
       <c r="B8" s="42"/>
-      <c r="C8" s="172" t="s">
-        <v>124</v>
-      </c>
-      <c r="D8" s="165"/>
+      <c r="C8" s="171" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="164"/>
       <c r="E8" s="76"/>
       <c r="F8" s="84">
         <f>ROUND(L8,3)</f>
         <v>0</v>
       </c>
       <c r="G8" s="43"/>
-      <c r="H8" s="204"/>
-      <c r="I8" s="202"/>
-      <c r="K8" s="202"/>
+      <c r="H8" s="202"/>
+      <c r="I8" s="200"/>
+      <c r="K8" s="200"/>
       <c r="L8" s="84">
         <f>Notes!G37</f>
         <v>0</v>
       </c>
       <c r="M8" s="43"/>
-      <c r="N8" s="146"/>
-      <c r="O8" s="144"/>
+      <c r="N8" s="145"/>
+      <c r="O8" s="143"/>
     </row>
     <row r="9" spans="1:15" ht="17" thickBot="1">
       <c r="B9" s="42"/>
@@ -4774,7 +4780,7 @@
         <v>0.98599999999999999</v>
       </c>
       <c r="G9" s="43"/>
-      <c r="H9" s="204"/>
+      <c r="H9" s="202"/>
       <c r="I9" s="43"/>
       <c r="K9" s="43"/>
       <c r="L9" s="84">
@@ -4782,34 +4788,34 @@
         <v>0.98631639978910413</v>
       </c>
       <c r="M9" s="43"/>
-      <c r="N9" s="145"/>
-      <c r="O9" s="144"/>
+      <c r="N9" s="144"/>
+      <c r="O9" s="143"/>
     </row>
     <row r="10" spans="1:15" ht="17" thickBot="1">
       <c r="B10" s="42"/>
       <c r="C10" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="98" t="s">
+      <c r="D10" s="97" t="s">
         <v>50</v>
       </c>
       <c r="E10" s="76"/>
-      <c r="F10" s="167">
+      <c r="F10" s="166">
         <f>ROUND(L10,0)</f>
         <v>3523</v>
       </c>
       <c r="G10" s="43"/>
-      <c r="L10" s="167">
+      <c r="L10" s="166">
         <f>Notes!G18</f>
         <v>3523.3275462962961</v>
       </c>
       <c r="M10" s="43"/>
-      <c r="N10" s="146"/>
-      <c r="O10" s="144"/>
+      <c r="N10" s="145"/>
+      <c r="O10" s="143"/>
     </row>
     <row r="11" spans="1:15" ht="17" thickBot="1">
-      <c r="A11" s="88"/>
-      <c r="B11" s="89"/>
+      <c r="A11" s="87"/>
+      <c r="B11" s="88"/>
       <c r="C11" s="86" t="s">
         <v>51</v>
       </c>
@@ -4817,67 +4823,66 @@
         <v>2</v>
       </c>
       <c r="E11" s="76"/>
-      <c r="F11" s="119">
+      <c r="F11" s="118">
         <v>1</v>
       </c>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="88"/>
-      <c r="N11" s="147" t="s">
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="87"/>
+      <c r="M11" s="87"/>
+      <c r="N11" s="146" t="s">
         <v>76</v>
       </c>
-      <c r="O11" s="91"/>
+      <c r="O11" s="90"/>
     </row>
     <row r="12" spans="1:15" ht="17" thickBot="1">
-      <c r="A12" s="88"/>
-      <c r="B12" s="89"/>
-      <c r="C12" s="131" t="s">
+      <c r="A12" s="87"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="130" t="s">
         <v>90</v>
       </c>
       <c r="D12" s="22" t="s">
         <v>92</v>
       </c>
       <c r="E12" s="76"/>
-      <c r="F12" s="182">
-        <f>H12</f>
-        <v>4690</v>
-      </c>
-      <c r="G12" s="88"/>
-      <c r="H12" s="87">
-        <f>Notes!G46</f>
-        <v>4690</v>
-      </c>
-      <c r="I12" s="88"/>
-      <c r="J12" s="88"/>
-      <c r="K12" s="88"/>
-      <c r="L12" s="88"/>
-      <c r="M12" s="88"/>
-      <c r="N12" s="147"/>
-      <c r="O12" s="91"/>
+      <c r="F12" s="181">
+        <f>Notes!G59</f>
+        <v>7884</v>
+      </c>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="146" t="s">
+        <v>76</v>
+      </c>
+      <c r="O12" s="90"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="88"/>
-      <c r="B13" s="89"/>
+      <c r="A13" s="87"/>
+      <c r="B13" s="88"/>
       <c r="C13" s="32"/>
       <c r="D13" s="32"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="101"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="143"/>
-      <c r="O13" s="144"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="100"/>
+      <c r="M13" s="100"/>
+      <c r="N13" s="142"/>
+      <c r="O13" s="143"/>
     </row>
     <row r="14" spans="1:15" ht="17" thickBot="1">
-      <c r="A14" s="88"/>
-      <c r="B14" s="89"/>
+      <c r="A14" s="87"/>
+      <c r="B14" s="88"/>
       <c r="C14" s="11" t="s">
         <v>40</v>
       </c>
@@ -4890,140 +4895,140 @@
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
-      <c r="N14" s="146"/>
-      <c r="O14" s="144"/>
+      <c r="N14" s="145"/>
+      <c r="O14" s="143"/>
     </row>
     <row r="15" spans="1:15" ht="17" thickBot="1">
-      <c r="A15" s="88"/>
-      <c r="B15" s="89"/>
-      <c r="C15" s="154" t="s">
+      <c r="A15" s="87"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="153" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="102" t="s">
+      <c r="D15" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="184">
+      <c r="F15" s="183">
         <f>ROUND(H15,0)</f>
         <v>948706597</v>
       </c>
-      <c r="G15" s="100"/>
-      <c r="H15" s="183">
+      <c r="G15" s="99"/>
+      <c r="H15" s="182">
         <f>Notes!G41</f>
         <v>948706597.22222221</v>
       </c>
-      <c r="I15" s="205"/>
-      <c r="J15" s="205"/>
-      <c r="K15" s="204"/>
-      <c r="L15" s="204"/>
-      <c r="M15" s="100"/>
-      <c r="N15" s="188"/>
-      <c r="O15" s="144"/>
+      <c r="I15" s="203"/>
+      <c r="J15" s="203"/>
+      <c r="K15" s="202"/>
+      <c r="L15" s="202"/>
+      <c r="M15" s="99"/>
+      <c r="N15" s="187"/>
+      <c r="O15" s="143"/>
     </row>
     <row r="16" spans="1:15" ht="17" thickBot="1">
-      <c r="A16" s="88"/>
-      <c r="B16" s="89"/>
-      <c r="C16" s="154" t="s">
+      <c r="A16" s="87"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="153" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="102" t="s">
+      <c r="D16" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="184">
+      <c r="F16" s="183">
         <f>ROUND(H16,0)</f>
         <v>23717665</v>
       </c>
-      <c r="H16" s="184">
+      <c r="H16" s="183">
         <f>Notes!G44</f>
         <v>23717664.930555556</v>
       </c>
-      <c r="I16" s="203"/>
-      <c r="J16" s="203"/>
-      <c r="K16" s="203"/>
-      <c r="L16" s="124"/>
-      <c r="N16" s="149"/>
-      <c r="O16" s="144"/>
+      <c r="I16" s="201"/>
+      <c r="J16" s="201"/>
+      <c r="K16" s="201"/>
+      <c r="L16" s="123"/>
+      <c r="N16" s="148"/>
+      <c r="O16" s="143"/>
     </row>
     <row r="17" spans="1:15" ht="17" thickBot="1">
-      <c r="A17" s="88"/>
-      <c r="B17" s="89"/>
-      <c r="C17" s="154" t="s">
+      <c r="A17" s="87"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="153" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="98" t="s">
+      <c r="D17" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="187">
+      <c r="F17" s="186">
         <f>ROUND(H17,0)</f>
         <v>0</v>
       </c>
-      <c r="H17" s="184">
-        <f>Notes!G52</f>
+      <c r="H17" s="183">
+        <f>Notes!G51</f>
         <v>0</v>
       </c>
-      <c r="I17" s="203"/>
-      <c r="J17" s="203"/>
-      <c r="K17" s="203"/>
-      <c r="L17" s="124"/>
+      <c r="I17" s="201"/>
+      <c r="J17" s="201"/>
+      <c r="K17" s="201"/>
+      <c r="L17" s="123"/>
       <c r="N17" s="86"/>
-      <c r="O17" s="144"/>
+      <c r="O17" s="143"/>
     </row>
     <row r="18" spans="1:15" ht="17" thickBot="1">
-      <c r="A18" s="88"/>
-      <c r="B18" s="89"/>
-      <c r="C18" s="113" t="s">
+      <c r="A18" s="87"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="113" t="s">
+      <c r="D18" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="103">
+      <c r="F18" s="102">
         <f>H18</f>
         <v>0</v>
       </c>
-      <c r="G18" s="93"/>
-      <c r="H18" s="124"/>
-      <c r="I18" s="124"/>
-      <c r="J18" s="124"/>
-      <c r="K18" s="124"/>
-      <c r="L18" s="124"/>
-      <c r="M18" s="93"/>
-      <c r="N18" s="172" t="s">
-        <v>127</v>
-      </c>
-      <c r="O18" s="144"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="123"/>
+      <c r="J18" s="123"/>
+      <c r="K18" s="123"/>
+      <c r="L18" s="123"/>
+      <c r="M18" s="92"/>
+      <c r="N18" s="171" t="s">
+        <v>125</v>
+      </c>
+      <c r="O18" s="143"/>
     </row>
     <row r="19" spans="1:15" ht="17" thickBot="1">
-      <c r="A19" s="88"/>
-      <c r="B19" s="89"/>
-      <c r="C19" s="113" t="s">
+      <c r="A19" s="87"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="113" t="s">
+      <c r="D19" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="121">
+      <c r="F19" s="120">
         <v>0</v>
       </c>
-      <c r="G19" s="93"/>
-      <c r="H19" s="124"/>
-      <c r="I19" s="124"/>
-      <c r="J19" s="124"/>
-      <c r="K19" s="124"/>
-      <c r="L19" s="124"/>
-      <c r="M19" s="93"/>
-      <c r="N19" s="172" t="s">
+      <c r="G19" s="92"/>
+      <c r="H19" s="123"/>
+      <c r="I19" s="123"/>
+      <c r="J19" s="123"/>
+      <c r="K19" s="123"/>
+      <c r="L19" s="123"/>
+      <c r="M19" s="92"/>
+      <c r="N19" s="171" t="s">
         <v>76</v>
       </c>
-      <c r="O19" s="144"/>
+      <c r="O19" s="143"/>
     </row>
     <row r="20" spans="1:15">
       <c r="B20" s="42"/>
-      <c r="N20" s="150"/>
-      <c r="O20" s="144"/>
+      <c r="N20" s="149"/>
+      <c r="O20" s="143"/>
     </row>
     <row r="21" spans="1:15" ht="17" thickBot="1">
-      <c r="A21" s="88"/>
-      <c r="B21" s="89"/>
+      <c r="A21" s="87"/>
+      <c r="B21" s="88"/>
       <c r="C21" s="32" t="s">
         <v>5</v>
       </c>
@@ -5036,75 +5041,75 @@
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
-      <c r="N21" s="148"/>
-      <c r="O21" s="144"/>
+      <c r="N21" s="147"/>
+      <c r="O21" s="143"/>
     </row>
     <row r="22" spans="1:15" ht="17" thickBot="1">
-      <c r="A22" s="88"/>
-      <c r="B22" s="89"/>
+      <c r="A22" s="87"/>
+      <c r="B22" s="88"/>
       <c r="C22" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="98" t="s">
+      <c r="D22" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="F22" s="99">
+      <c r="F22" s="98">
         <v>40</v>
       </c>
-      <c r="G22" s="100"/>
-      <c r="H22" s="166"/>
-      <c r="I22" s="166"/>
-      <c r="J22" s="166"/>
-      <c r="K22" s="166"/>
-      <c r="L22" s="166"/>
-      <c r="M22" s="100"/>
-      <c r="N22" s="172" t="s">
-        <v>128</v>
-      </c>
-      <c r="O22" s="144"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="165"/>
+      <c r="I22" s="165"/>
+      <c r="J22" s="165"/>
+      <c r="K22" s="165"/>
+      <c r="L22" s="165"/>
+      <c r="M22" s="99"/>
+      <c r="N22" s="171" t="s">
+        <v>126</v>
+      </c>
+      <c r="O22" s="143"/>
     </row>
     <row r="23" spans="1:15" ht="17" thickBot="1">
-      <c r="A23" s="88"/>
-      <c r="B23" s="89"/>
+      <c r="A23" s="87"/>
+      <c r="B23" s="88"/>
       <c r="C23" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="98" t="s">
+      <c r="D23" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="F23" s="123">
+      <c r="F23" s="122">
         <v>0</v>
       </c>
-      <c r="G23" s="101"/>
-      <c r="H23" s="101"/>
-      <c r="I23" s="101"/>
-      <c r="J23" s="101"/>
-      <c r="K23" s="101"/>
-      <c r="L23" s="101"/>
-      <c r="M23" s="101"/>
-      <c r="N23" s="172" t="s">
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
+      <c r="K23" s="100"/>
+      <c r="L23" s="100"/>
+      <c r="M23" s="100"/>
+      <c r="N23" s="171" t="s">
         <v>76</v>
       </c>
-      <c r="O23" s="144"/>
+      <c r="O23" s="143"/>
     </row>
     <row r="24" spans="1:15" ht="17" thickBot="1">
-      <c r="B24" s="151"/>
-      <c r="C24" s="152"/>
-      <c r="D24" s="152"/>
-      <c r="E24" s="152"/>
-      <c r="F24" s="152"/>
-      <c r="G24" s="152"/>
-      <c r="H24" s="152"/>
-      <c r="I24" s="152"/>
-      <c r="J24" s="152"/>
-      <c r="K24" s="152"/>
-      <c r="L24" s="152"/>
-      <c r="M24" s="152"/>
-      <c r="N24" s="152"/>
-      <c r="O24" s="153"/>
+      <c r="B24" s="150"/>
+      <c r="C24" s="151"/>
+      <c r="D24" s="151"/>
+      <c r="E24" s="151"/>
+      <c r="F24" s="151"/>
+      <c r="G24" s="151"/>
+      <c r="H24" s="151"/>
+      <c r="I24" s="151"/>
+      <c r="J24" s="151"/>
+      <c r="K24" s="151"/>
+      <c r="L24" s="151"/>
+      <c r="M24" s="151"/>
+      <c r="N24" s="151"/>
+      <c r="O24" s="152"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="36" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -5121,18 +5126,18 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="45" customWidth="1"/>
-    <col min="2" max="2" width="6.5" style="45" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" style="45" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="45" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" style="45" customWidth="1"/>
-    <col min="6" max="7" width="13.1640625" style="45" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="49" customWidth="1"/>
-    <col min="9" max="9" width="31.5" style="49" customWidth="1"/>
-    <col min="10" max="10" width="98.5" style="45" customWidth="1"/>
-    <col min="11" max="16384" width="33.1640625" style="45"/>
+    <col min="1" max="1" width="3.42578125" style="45" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="45" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="45" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" style="45" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="49" customWidth="1"/>
+    <col min="9" max="9" width="31.42578125" style="49" customWidth="1"/>
+    <col min="10" max="10" width="98.42578125" style="45" customWidth="1"/>
+    <col min="11" max="16384" width="33.140625" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="17" thickBot="1"/>
@@ -5145,7 +5150,7 @@
       <c r="G2" s="47"/>
       <c r="H2" s="50"/>
       <c r="I2" s="50"/>
-      <c r="J2" s="134"/>
+      <c r="J2" s="133"/>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" s="48"/>
@@ -5158,11 +5163,11 @@
       <c r="G3" s="12"/>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
-      <c r="J3" s="135"/>
+      <c r="J3" s="134"/>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="48"/>
-      <c r="J4" s="135"/>
+      <c r="J4" s="134"/>
     </row>
     <row r="5" spans="2:10">
       <c r="B5" s="51"/>
@@ -5204,40 +5209,40 @@
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="48"/>
-      <c r="C7" s="173" t="s">
+      <c r="C7" s="172" t="s">
         <v>96</v>
       </c>
-      <c r="D7" s="190" t="s">
+      <c r="D7" s="189" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="173" t="s">
+      <c r="E7" s="172" t="s">
         <v>98</v>
       </c>
-      <c r="F7" s="174">
+      <c r="F7" s="173">
         <v>44348</v>
       </c>
-      <c r="G7" s="163">
+      <c r="G7" s="162">
         <v>2021</v>
       </c>
-      <c r="H7" s="175" t="s">
+      <c r="H7" s="174" t="s">
         <v>102</v>
       </c>
-      <c r="I7" s="164" t="s">
+      <c r="I7" s="163" t="s">
         <v>99</v>
       </c>
-      <c r="J7" s="135" t="s">
+      <c r="J7" s="134" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="48"/>
-      <c r="C8" s="176" t="s">
+      <c r="C8" s="175" t="s">
         <v>108</v>
       </c>
-      <c r="D8" s="173" t="s">
+      <c r="D8" s="172" t="s">
         <v>109</v>
       </c>
-      <c r="E8" s="173" t="s">
+      <c r="E8" s="172" t="s">
         <v>110</v>
       </c>
       <c r="F8" s="45">
@@ -5246,114 +5251,114 @@
       <c r="G8" s="45">
         <v>2022</v>
       </c>
-      <c r="H8" s="175" t="s">
+      <c r="H8" s="174" t="s">
         <v>102</v>
       </c>
-      <c r="I8" s="177" t="s">
+      <c r="I8" s="176" t="s">
         <v>111</v>
       </c>
-      <c r="J8" s="135" t="s">
+      <c r="J8" s="134" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="48"/>
-      <c r="C9" s="189" t="s">
+      <c r="C9" s="188" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="189" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="189" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" s="190">
+        <v>44105</v>
+      </c>
+      <c r="G9" s="189">
+        <v>2020</v>
+      </c>
+      <c r="H9" s="191" t="s">
+        <v>102</v>
+      </c>
+      <c r="I9" s="191" t="s">
+        <v>132</v>
+      </c>
+      <c r="J9" s="192" t="s">
         <v>133</v>
-      </c>
-      <c r="D9" s="190" t="s">
-        <v>132</v>
-      </c>
-      <c r="E9" s="190" t="s">
-        <v>98</v>
-      </c>
-      <c r="F9" s="191">
-        <v>44105</v>
-      </c>
-      <c r="G9" s="190">
-        <v>2020</v>
-      </c>
-      <c r="H9" s="192" t="s">
-        <v>102</v>
-      </c>
-      <c r="I9" s="192" t="s">
-        <v>134</v>
-      </c>
-      <c r="J9" s="193" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="48"/>
-      <c r="C10" s="136"/>
-      <c r="J10" s="135"/>
+      <c r="C10" s="135"/>
+      <c r="J10" s="134"/>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="48"/>
-      <c r="C11" s="104"/>
-      <c r="J11" s="135"/>
+      <c r="C11" s="103"/>
+      <c r="J11" s="134"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="48"/>
-      <c r="J12" s="135"/>
+      <c r="J12" s="134"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="48"/>
-      <c r="C13" s="136"/>
-      <c r="D13" s="136"/>
-      <c r="E13" s="136"/>
+      <c r="C13" s="135"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="135"/>
       <c r="H13" s="82"/>
-      <c r="J13" s="135"/>
+      <c r="J13" s="134"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="48"/>
-      <c r="J14" s="135"/>
+      <c r="J14" s="134"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="48"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
       <c r="H15" s="82"/>
-      <c r="I15" s="137"/>
-      <c r="J15" s="135"/>
+      <c r="I15" s="136"/>
+      <c r="J15" s="134"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="48"/>
-      <c r="C16" s="129"/>
-      <c r="J16" s="135"/>
+      <c r="C16" s="128"/>
+      <c r="J16" s="134"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="48"/>
-      <c r="J17" s="135"/>
+      <c r="J17" s="134"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="48"/>
-      <c r="J18" s="135"/>
+      <c r="J18" s="134"/>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="48"/>
-      <c r="C19" s="136"/>
-      <c r="D19" s="136"/>
+      <c r="C19" s="135"/>
+      <c r="D19" s="135"/>
       <c r="H19" s="82"/>
-      <c r="J19" s="135"/>
+      <c r="J19" s="134"/>
     </row>
     <row r="20" spans="2:10" ht="17" thickBot="1">
-      <c r="B20" s="138"/>
-      <c r="C20" s="139"/>
-      <c r="D20" s="139"/>
-      <c r="E20" s="139"/>
-      <c r="F20" s="139"/>
-      <c r="G20" s="139"/>
-      <c r="H20" s="140"/>
-      <c r="I20" s="140"/>
-      <c r="J20" s="141"/>
+      <c r="B20" s="137"/>
+      <c r="C20" s="138"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="138"/>
+      <c r="H20" s="139"/>
+      <c r="I20" s="139"/>
+      <c r="J20" s="140"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="I21" s="125"/>
+      <c r="I21" s="124"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="36" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I8" r:id="rId1" xr:uid="{0085ACA8-75F4-DE49-8FAB-45E72165AD1A}"/>
     <hyperlink ref="J9" r:id="rId2" xr:uid="{039F6138-493D-0049-A9B0-ACE38A8984A4}"/>
@@ -5368,26 +5373,26 @@
   <sheetPr>
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:U376"/>
+  <dimension ref="A1:U375"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.5" style="52" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="52" customWidth="1"/>
     <col min="3" max="3" width="23" style="52" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" style="52" customWidth="1"/>
-    <col min="5" max="6" width="10.6640625" style="52" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" style="52" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="52" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" style="52" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" style="52" customWidth="1"/>
     <col min="8" max="8" width="10" style="52" customWidth="1"/>
     <col min="9" max="9" width="43" style="52" customWidth="1"/>
-    <col min="10" max="10" width="10.1640625" style="52" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" style="52" customWidth="1"/>
     <col min="11" max="11" width="19" style="52" customWidth="1"/>
-    <col min="12" max="17" width="10.6640625" style="52"/>
-    <col min="18" max="18" width="7.1640625" style="52" customWidth="1"/>
-    <col min="19" max="16384" width="10.6640625" style="52"/>
+    <col min="12" max="17" width="10.7109375" style="52"/>
+    <col min="18" max="18" width="7.140625" style="52" customWidth="1"/>
+    <col min="19" max="16384" width="10.7109375" style="52"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="17" thickBot="1"/>
@@ -5456,56 +5461,56 @@
     </row>
     <row r="4" spans="1:21">
       <c r="B4" s="58"/>
-      <c r="R4" s="155"/>
+      <c r="R4" s="154"/>
     </row>
     <row r="5" spans="1:21">
       <c r="B5" s="58"/>
-      <c r="C5" s="208" t="s">
+      <c r="C5" s="206" t="s">
         <v>97</v>
       </c>
-      <c r="R5" s="155"/>
+      <c r="R5" s="154"/>
     </row>
     <row r="6" spans="1:21">
       <c r="B6" s="58"/>
-      <c r="C6" s="208"/>
+      <c r="C6" s="206"/>
       <c r="D6" s="56" t="s">
         <v>101</v>
       </c>
       <c r="E6" s="56"/>
       <c r="F6" s="56"/>
-      <c r="R6" s="155"/>
+      <c r="R6" s="154"/>
     </row>
     <row r="7" spans="1:21">
       <c r="B7" s="58"/>
       <c r="D7" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="R7" s="155"/>
+      <c r="R7" s="154"/>
     </row>
     <row r="8" spans="1:21">
       <c r="B8" s="58"/>
-      <c r="D8" s="218"/>
-      <c r="E8" s="218"/>
-      <c r="F8" s="218"/>
-      <c r="G8" s="218"/>
-      <c r="H8" s="218"/>
-      <c r="I8" s="218"/>
-      <c r="R8" s="155"/>
+      <c r="D8" s="217"/>
+      <c r="E8" s="217"/>
+      <c r="F8" s="217"/>
+      <c r="G8" s="217"/>
+      <c r="H8" s="217"/>
+      <c r="I8" s="217"/>
+      <c r="R8" s="154"/>
     </row>
     <row r="9" spans="1:21">
       <c r="B9" s="58"/>
-      <c r="R9" s="155"/>
+      <c r="R9" s="154"/>
     </row>
     <row r="10" spans="1:21">
       <c r="B10" s="58"/>
-      <c r="R10" s="155"/>
+      <c r="R10" s="154"/>
     </row>
     <row r="11" spans="1:21">
       <c r="B11" s="58"/>
       <c r="D11" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="G11" s="179">
+      <c r="G11" s="178">
         <v>120.1</v>
       </c>
       <c r="H11" s="52" t="s">
@@ -5514,29 +5519,29 @@
       <c r="I11" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="R11" s="155"/>
+      <c r="R11" s="154"/>
     </row>
     <row r="12" spans="1:21">
       <c r="B12" s="58"/>
-      <c r="R12" s="155"/>
+      <c r="R12" s="154"/>
     </row>
     <row r="13" spans="1:21">
       <c r="B13" s="58"/>
       <c r="D13" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="G13" s="179">
+      <c r="G13" s="178">
         <f>3600*24</f>
         <v>86400</v>
       </c>
       <c r="H13" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="R13" s="155"/>
+      <c r="R13" s="154"/>
     </row>
     <row r="14" spans="1:21">
       <c r="B14" s="58"/>
-      <c r="R14" s="155"/>
+      <c r="R14" s="154"/>
     </row>
     <row r="15" spans="1:21">
       <c r="B15" s="58"/>
@@ -5546,143 +5551,143 @@
       <c r="D15" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="G15" s="179">
+      <c r="G15" s="178">
         <v>2500</v>
       </c>
       <c r="H15" s="52" t="s">
         <v>82</v>
       </c>
       <c r="I15" s="52" t="s">
-        <v>118</v>
-      </c>
-      <c r="R15" s="155"/>
+        <v>117</v>
+      </c>
+      <c r="R15" s="154"/>
     </row>
     <row r="16" spans="1:21">
       <c r="B16" s="58"/>
-      <c r="G16" s="180">
+      <c r="G16" s="179">
         <f>G15*1000*G11</f>
         <v>300250000</v>
       </c>
       <c r="H16" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="R16" s="155"/>
+      <c r="R16" s="154"/>
     </row>
     <row r="17" spans="2:18">
       <c r="B17" s="58"/>
-      <c r="G17" s="178">
+      <c r="G17" s="177">
         <f>G16/G13</f>
         <v>3475.1157407407409</v>
       </c>
       <c r="H17" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="R17" s="155"/>
+      <c r="R17" s="154"/>
     </row>
     <row r="18" spans="2:18">
       <c r="B18" s="58"/>
       <c r="D18" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="G18" s="198">
+      <c r="G18" s="197">
         <f>G17/G35</f>
         <v>3523.3275462962961</v>
       </c>
       <c r="H18" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="R18" s="155"/>
+      <c r="R18" s="154"/>
     </row>
     <row r="19" spans="2:18">
       <c r="B19" s="58"/>
-      <c r="R19" s="155"/>
+      <c r="R19" s="154"/>
     </row>
     <row r="20" spans="2:18">
       <c r="B20" s="58"/>
       <c r="D20" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="G20" s="179">
+        <v>153</v>
+      </c>
+      <c r="G20" s="178">
         <f>AVERAGE(0.6,1.665,0.2,0.182,0.03,0.1)</f>
         <v>0.46283333333333337</v>
       </c>
       <c r="H20" s="52" t="s">
-        <v>153</v>
-      </c>
-      <c r="R20" s="155"/>
+        <v>151</v>
+      </c>
+      <c r="R20" s="154"/>
     </row>
     <row r="21" spans="2:18">
       <c r="B21" s="58"/>
-      <c r="G21" s="180">
+      <c r="G21" s="179">
         <f>G20/G11</f>
         <v>3.8537330002775469E-3</v>
       </c>
       <c r="H21" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="R21" s="155"/>
+        <v>150</v>
+      </c>
+      <c r="R21" s="154"/>
     </row>
     <row r="22" spans="2:18">
       <c r="B22" s="58"/>
-      <c r="G22" s="180">
+      <c r="G22" s="179">
         <f>G21*3.6</f>
         <v>1.387343880099917E-2</v>
       </c>
       <c r="H22" s="52" t="s">
-        <v>154</v>
-      </c>
-      <c r="R22" s="155"/>
+        <v>152</v>
+      </c>
+      <c r="R22" s="154"/>
     </row>
     <row r="23" spans="2:18">
       <c r="B23" s="58"/>
-      <c r="R23" s="155"/>
+      <c r="R23" s="154"/>
     </row>
     <row r="24" spans="2:18">
       <c r="B24" s="58"/>
-      <c r="R24" s="155"/>
+      <c r="R24" s="154"/>
     </row>
     <row r="25" spans="2:18">
       <c r="B25" s="58"/>
-      <c r="C25" s="160"/>
-      <c r="F25" s="194"/>
-      <c r="R25" s="155"/>
+      <c r="C25" s="159"/>
+      <c r="F25" s="193"/>
+      <c r="R25" s="154"/>
     </row>
     <row r="26" spans="2:18">
       <c r="B26" s="58"/>
       <c r="C26" s="52" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D26" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="F26" s="194"/>
-      <c r="G26" s="195">
+      <c r="F26" s="193"/>
+      <c r="G26" s="194">
         <v>1</v>
       </c>
       <c r="H26" s="52" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I26" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="R26" s="155"/>
+        <v>137</v>
+      </c>
+      <c r="R26" s="154"/>
     </row>
     <row r="27" spans="2:18">
       <c r="B27" s="58"/>
       <c r="D27" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="F27" s="194"/>
-      <c r="G27" s="195">
+      <c r="F27" s="193"/>
+      <c r="G27" s="194">
         <v>1</v>
       </c>
       <c r="H27" s="52" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I27" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="R27" s="155"/>
+        <v>137</v>
+      </c>
+      <c r="R27" s="154"/>
     </row>
     <row r="28" spans="2:18">
       <c r="B28" s="58"/>
@@ -5690,45 +5695,45 @@
         <v>109</v>
       </c>
       <c r="D28" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="F28" s="194"/>
-      <c r="G28" s="181">
+        <v>122</v>
+      </c>
+      <c r="F28" s="193"/>
+      <c r="G28" s="180">
         <f>G22</f>
         <v>1.387343880099917E-2</v>
       </c>
       <c r="H28" s="52" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I28" s="52" t="s">
-        <v>156</v>
-      </c>
-      <c r="R28" s="155"/>
+        <v>154</v>
+      </c>
+      <c r="R28" s="154"/>
     </row>
     <row r="29" spans="2:18">
       <c r="B29" s="58"/>
       <c r="D29" s="52" t="s">
-        <v>137</v>
-      </c>
-      <c r="G29" s="181">
+        <v>135</v>
+      </c>
+      <c r="G29" s="180">
         <f>G27+G28-G26</f>
         <v>1.3873438800999116E-2</v>
       </c>
       <c r="H29" s="52" t="s">
-        <v>136</v>
-      </c>
-      <c r="R29" s="155"/>
+        <v>134</v>
+      </c>
+      <c r="R29" s="154"/>
     </row>
     <row r="30" spans="2:18">
       <c r="B30" s="58"/>
-      <c r="R30" s="155"/>
+      <c r="R30" s="154"/>
     </row>
     <row r="31" spans="2:18">
       <c r="B31" s="58"/>
       <c r="D31" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="G31" s="181">
+      <c r="G31" s="180">
         <f>G26/(G26+G29)</f>
         <v>0.98631639978910413</v>
       </c>
@@ -5736,16 +5741,16 @@
         <v>2</v>
       </c>
       <c r="I31" s="52" t="s">
-        <v>138</v>
-      </c>
-      <c r="R31" s="155"/>
+        <v>136</v>
+      </c>
+      <c r="R31" s="154"/>
     </row>
     <row r="32" spans="2:18">
       <c r="B32" s="58"/>
       <c r="D32" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="G32" s="181">
+      <c r="G32" s="180">
         <f>G27/(G28+G27)</f>
         <v>0.98631639978910413</v>
       </c>
@@ -5753,16 +5758,16 @@
         <v>2</v>
       </c>
       <c r="I32" s="52" t="s">
-        <v>138</v>
-      </c>
-      <c r="R32" s="155"/>
+        <v>136</v>
+      </c>
+      <c r="R32" s="154"/>
     </row>
     <row r="33" spans="2:18">
       <c r="B33" s="58"/>
       <c r="D33" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="G33" s="181">
+        <v>122</v>
+      </c>
+      <c r="G33" s="180">
         <f>G28/(G28+G27)</f>
         <v>1.3683600210895966E-2</v>
       </c>
@@ -5770,35 +5775,35 @@
         <v>2</v>
       </c>
       <c r="I33" s="52" t="s">
-        <v>138</v>
-      </c>
-      <c r="R33" s="155"/>
+        <v>136</v>
+      </c>
+      <c r="R33" s="154"/>
     </row>
     <row r="34" spans="2:18">
       <c r="B34" s="58"/>
-      <c r="G34" s="196"/>
-      <c r="R34" s="155"/>
+      <c r="G34" s="195"/>
+      <c r="R34" s="154"/>
     </row>
     <row r="35" spans="2:18">
       <c r="B35" s="58"/>
       <c r="D35" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="G35" s="197">
+      <c r="G35" s="196">
         <f>G31</f>
         <v>0.98631639978910413</v>
       </c>
       <c r="H35" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="R35" s="155"/>
+      <c r="R35" s="154"/>
     </row>
     <row r="36" spans="2:18">
       <c r="B36" s="58"/>
       <c r="D36" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="G36" s="197">
+      <c r="G36" s="196">
         <f>G32+G33</f>
         <v>1</v>
       </c>
@@ -5806,1735 +5811,1722 @@
         <v>2</v>
       </c>
       <c r="I36" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="R36" s="155"/>
+        <v>138</v>
+      </c>
+      <c r="R36" s="154"/>
     </row>
     <row r="37" spans="2:18">
       <c r="B37" s="58"/>
       <c r="D37" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="G37" s="197">
+        <v>122</v>
+      </c>
+      <c r="G37" s="196">
         <v>0</v>
       </c>
       <c r="H37" s="52" t="s">
         <v>2</v>
       </c>
       <c r="I37" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="R37" s="155"/>
+        <v>138</v>
+      </c>
+      <c r="R37" s="154"/>
     </row>
     <row r="38" spans="2:18" ht="17" customHeight="1">
       <c r="B38" s="58"/>
-      <c r="R38" s="155"/>
+      <c r="R38" s="154"/>
     </row>
     <row r="39" spans="2:18" ht="17" customHeight="1">
       <c r="B39" s="58"/>
-      <c r="C39" s="173" t="s">
+      <c r="C39" s="172" t="s">
         <v>97</v>
       </c>
-      <c r="R39" s="155"/>
+      <c r="R39" s="154"/>
     </row>
     <row r="40" spans="2:18" ht="17" customHeight="1">
       <c r="B40" s="58"/>
       <c r="D40" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="G40" s="178">
+        <v>273</v>
+      </c>
+      <c r="H40" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="I40" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="G40" s="179">
-        <v>273</v>
-      </c>
-      <c r="H40" s="52" t="s">
-        <v>121</v>
-      </c>
-      <c r="I40" s="52" t="s">
-        <v>122</v>
-      </c>
-      <c r="R40" s="155"/>
+      <c r="R40" s="154"/>
     </row>
     <row r="41" spans="2:18" ht="17" customHeight="1">
       <c r="B41" s="58"/>
-      <c r="C41" s="160"/>
+      <c r="C41" s="159"/>
       <c r="D41" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="G41" s="198">
+      <c r="G41" s="197">
         <f>G17*G40*1000</f>
         <v>948706597.22222221</v>
       </c>
       <c r="H41" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="R41" s="155"/>
+      <c r="R41" s="154"/>
     </row>
     <row r="42" spans="2:18" ht="17" customHeight="1">
       <c r="B42" s="58"/>
-      <c r="C42" s="160"/>
-      <c r="R42" s="155"/>
+      <c r="C42" s="159"/>
+      <c r="R42" s="154"/>
     </row>
     <row r="43" spans="2:18" ht="17" customHeight="1">
       <c r="B43" s="58"/>
-      <c r="C43" s="160"/>
+      <c r="C43" s="159"/>
       <c r="D43" s="52" t="s">
-        <v>130</v>
-      </c>
-      <c r="G43" s="179">
+        <v>128</v>
+      </c>
+      <c r="G43" s="178">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="H43" s="52" t="s">
         <v>2</v>
       </c>
       <c r="I43" s="52" t="s">
-        <v>123</v>
-      </c>
-      <c r="R43" s="155"/>
+        <v>121</v>
+      </c>
+      <c r="R43" s="154"/>
     </row>
     <row r="44" spans="2:18" ht="17" customHeight="1">
       <c r="B44" s="58"/>
-      <c r="C44" s="160"/>
+      <c r="C44" s="159"/>
       <c r="D44" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="G44" s="198">
+      <c r="G44" s="197">
         <f>G41*G43</f>
         <v>23717664.930555556</v>
       </c>
       <c r="H44" s="52" t="s">
-        <v>144</v>
-      </c>
-      <c r="R44" s="155"/>
+        <v>142</v>
+      </c>
+      <c r="R44" s="154"/>
     </row>
     <row r="45" spans="2:18" ht="17" customHeight="1">
       <c r="B45" s="58"/>
-      <c r="C45" s="160"/>
-      <c r="R45" s="155"/>
+      <c r="C45" s="159"/>
+      <c r="R45" s="154"/>
     </row>
     <row r="46" spans="2:18" ht="17" customHeight="1">
       <c r="B46" s="58"/>
-      <c r="C46" s="160"/>
-      <c r="D46" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="E46" s="52">
-        <v>4380</v>
-      </c>
-      <c r="F46" s="52">
-        <v>5000</v>
-      </c>
-      <c r="G46" s="200">
-        <f>AVERAGE(E46:F46)</f>
-        <v>4690</v>
-      </c>
-      <c r="H46" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="I46" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="R46" s="155"/>
+      <c r="C46" s="159"/>
+      <c r="R46" s="154"/>
     </row>
     <row r="47" spans="2:18" ht="17" customHeight="1">
       <c r="B47" s="58"/>
-      <c r="C47" s="160"/>
-      <c r="R47" s="155"/>
+      <c r="C47" s="159"/>
+      <c r="D47" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="G47" s="178">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H47" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="I47" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="R47" s="154"/>
     </row>
     <row r="48" spans="2:18" ht="17" customHeight="1">
       <c r="B48" s="58"/>
-      <c r="C48" s="160"/>
+      <c r="C48" s="159"/>
       <c r="D48" s="52" t="s">
-        <v>129</v>
-      </c>
-      <c r="G48" s="179">
-        <v>3.0000000000000001E-3</v>
+        <v>123</v>
+      </c>
+      <c r="G48" s="178">
+        <v>50</v>
       </c>
       <c r="H48" s="52" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="I48" s="52" t="s">
-        <v>146</v>
-      </c>
-      <c r="R48" s="155"/>
+        <v>120</v>
+      </c>
+      <c r="R48" s="154"/>
     </row>
     <row r="49" spans="2:21" ht="17" customHeight="1">
       <c r="B49" s="58"/>
-      <c r="C49" s="160"/>
+      <c r="C49" s="159"/>
       <c r="D49" s="52" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G49" s="179">
-        <v>50</v>
+        <f>G47*G48</f>
+        <v>0.15</v>
       </c>
       <c r="H49" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="I49" s="52" t="s">
-        <v>122</v>
-      </c>
-      <c r="R49" s="155"/>
+        <v>145</v>
+      </c>
+      <c r="R49" s="154"/>
     </row>
     <row r="50" spans="2:21" ht="17" customHeight="1">
       <c r="B50" s="58"/>
-      <c r="C50" s="160"/>
-      <c r="D50" s="52" t="s">
-        <v>129</v>
-      </c>
-      <c r="G50" s="180">
-        <f>G48*G49</f>
-        <v>0.15</v>
+      <c r="C50" s="159"/>
+      <c r="D50" s="199" t="s">
+        <v>74</v>
+      </c>
+      <c r="G50" s="177">
+        <f>G49*G17</f>
+        <v>521.26736111111109</v>
       </c>
       <c r="H50" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="R50" s="155"/>
+        <v>146</v>
+      </c>
+      <c r="R50" s="154"/>
     </row>
     <row r="51" spans="2:21" ht="17" customHeight="1">
       <c r="B51" s="58"/>
-      <c r="C51" s="160"/>
-      <c r="D51" s="201" t="s">
+      <c r="C51" s="159"/>
+      <c r="D51" s="199" t="s">
         <v>74</v>
       </c>
-      <c r="G51" s="178">
-        <f>G50*G17</f>
-        <v>521.26736111111109</v>
+      <c r="G51" s="197">
+        <v>0</v>
       </c>
       <c r="H51" s="52" t="s">
-        <v>148</v>
-      </c>
-      <c r="R51" s="155"/>
+        <v>146</v>
+      </c>
+      <c r="I51" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="R51" s="154"/>
     </row>
     <row r="52" spans="2:21" ht="17" customHeight="1">
       <c r="B52" s="58"/>
-      <c r="C52" s="160"/>
-      <c r="D52" s="201" t="s">
-        <v>74</v>
-      </c>
-      <c r="G52" s="198">
-        <v>0</v>
-      </c>
-      <c r="H52" s="52" t="s">
-        <v>148</v>
-      </c>
-      <c r="I52" s="52" t="s">
-        <v>149</v>
-      </c>
-      <c r="R52" s="155"/>
+      <c r="C52" s="159"/>
+      <c r="R52" s="154"/>
     </row>
     <row r="53" spans="2:21" ht="17" customHeight="1">
       <c r="B53" s="58"/>
-      <c r="C53" s="160"/>
-      <c r="R53" s="155"/>
+      <c r="C53" s="119"/>
+      <c r="D53" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="G53" s="178">
+        <v>0</v>
+      </c>
+      <c r="I53" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="R53" s="154"/>
     </row>
     <row r="54" spans="2:21" ht="17" customHeight="1">
       <c r="B54" s="58"/>
-      <c r="C54" s="120"/>
-      <c r="D54" s="52" t="s">
-        <v>150</v>
-      </c>
-      <c r="G54" s="179">
-        <v>0</v>
-      </c>
-      <c r="I54" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="R54" s="155"/>
-    </row>
-    <row r="55" spans="2:21" ht="17" customHeight="1">
+      <c r="R54" s="154"/>
+    </row>
+    <row r="55" spans="2:21">
       <c r="B55" s="58"/>
-      <c r="R55" s="155"/>
+      <c r="L55" s="56"/>
+      <c r="R55" s="154"/>
     </row>
     <row r="56" spans="2:21">
       <c r="B56" s="58"/>
-      <c r="L56" s="56"/>
-      <c r="R56" s="155"/>
+      <c r="R56" s="154"/>
+      <c r="T56" s="56" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="57" spans="2:21">
       <c r="B57" s="58"/>
-      <c r="R57" s="155"/>
+      <c r="G57" s="105"/>
+      <c r="R57" s="154"/>
       <c r="T57" s="56" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="U57" s="52" t="str">
+        <f>Sources!D8</f>
+        <v>IRENA</v>
       </c>
     </row>
     <row r="58" spans="2:21">
       <c r="B58" s="58"/>
-      <c r="G58" s="106"/>
-      <c r="R58" s="155"/>
-      <c r="T58" s="56" t="s">
-        <v>107</v>
-      </c>
-      <c r="U58" s="52" t="str">
-        <f>Sources!D8</f>
-        <v>IRENA</v>
-      </c>
+      <c r="C58" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="G58" s="105"/>
+      <c r="R58" s="154"/>
     </row>
     <row r="59" spans="2:21">
       <c r="B59" s="58"/>
-      <c r="G59" s="106"/>
-      <c r="R59" s="155"/>
+      <c r="D59" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="G59" s="160">
+        <v>7884</v>
+      </c>
+      <c r="I59" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="R59" s="154"/>
     </row>
     <row r="60" spans="2:21">
       <c r="B60" s="58"/>
-      <c r="G60" s="161"/>
-      <c r="R60" s="155"/>
+      <c r="G60" s="105"/>
+      <c r="I60" s="105"/>
+      <c r="R60" s="154"/>
     </row>
     <row r="61" spans="2:21">
       <c r="B61" s="58"/>
-      <c r="G61" s="106"/>
-      <c r="I61" s="106"/>
-      <c r="R61" s="155"/>
+      <c r="G61" s="105"/>
+      <c r="I61" s="105"/>
+      <c r="R61" s="154"/>
     </row>
     <row r="62" spans="2:21">
       <c r="B62" s="58"/>
-      <c r="G62" s="106"/>
-      <c r="I62" s="106"/>
-      <c r="R62" s="155"/>
+      <c r="G62" s="105"/>
+      <c r="R62" s="154"/>
     </row>
     <row r="63" spans="2:21">
       <c r="B63" s="58"/>
-      <c r="G63" s="106"/>
-      <c r="R63" s="155"/>
+      <c r="G63" s="160"/>
+      <c r="R63" s="154"/>
     </row>
     <row r="64" spans="2:21">
       <c r="B64" s="58"/>
       <c r="G64" s="161"/>
-      <c r="R64" s="155"/>
+      <c r="R64" s="154"/>
     </row>
     <row r="65" spans="2:18">
       <c r="B65" s="58"/>
-      <c r="G65" s="162"/>
-      <c r="R65" s="155"/>
+      <c r="C65" s="56"/>
+      <c r="G65" s="105"/>
+      <c r="R65" s="154"/>
     </row>
     <row r="66" spans="2:18">
       <c r="B66" s="58"/>
-      <c r="C66" s="56"/>
-      <c r="G66" s="106"/>
-      <c r="R66" s="155"/>
+      <c r="R66" s="154"/>
     </row>
     <row r="67" spans="2:18">
       <c r="B67" s="58"/>
-      <c r="R67" s="155"/>
+      <c r="R67" s="154"/>
     </row>
     <row r="68" spans="2:18">
       <c r="B68" s="58"/>
-      <c r="R68" s="155"/>
+      <c r="L68" s="155"/>
+      <c r="R68" s="154"/>
     </row>
     <row r="69" spans="2:18">
       <c r="B69" s="58"/>
-      <c r="L69" s="156"/>
-      <c r="R69" s="155"/>
+      <c r="G69" s="105"/>
+      <c r="H69" s="127"/>
+      <c r="R69" s="154"/>
     </row>
     <row r="70" spans="2:18">
       <c r="B70" s="58"/>
-      <c r="G70" s="106"/>
-      <c r="H70" s="128"/>
-      <c r="R70" s="155"/>
+      <c r="H70" s="127"/>
+      <c r="R70" s="154"/>
     </row>
     <row r="71" spans="2:18">
       <c r="B71" s="58"/>
-      <c r="H71" s="128"/>
-      <c r="R71" s="155"/>
+      <c r="G71" s="105"/>
+      <c r="H71" s="127"/>
+      <c r="R71" s="154"/>
     </row>
     <row r="72" spans="2:18">
       <c r="B72" s="58"/>
-      <c r="G72" s="106"/>
-      <c r="H72" s="128"/>
-      <c r="R72" s="155"/>
+      <c r="G72" s="105"/>
+      <c r="R72" s="154"/>
     </row>
     <row r="73" spans="2:18">
       <c r="B73" s="58"/>
-      <c r="G73" s="106"/>
-      <c r="R73" s="155"/>
+      <c r="G73" s="105"/>
+      <c r="R73" s="154"/>
     </row>
     <row r="74" spans="2:18">
       <c r="B74" s="58"/>
-      <c r="G74" s="106"/>
-      <c r="R74" s="155"/>
+      <c r="R74" s="154"/>
     </row>
     <row r="75" spans="2:18">
       <c r="B75" s="58"/>
-      <c r="R75" s="155"/>
+      <c r="R75" s="154"/>
     </row>
     <row r="76" spans="2:18">
       <c r="B76" s="58"/>
-      <c r="R76" s="155"/>
+      <c r="R76" s="154"/>
     </row>
     <row r="77" spans="2:18">
       <c r="B77" s="58"/>
-      <c r="R77" s="155"/>
+      <c r="R77" s="154"/>
     </row>
     <row r="78" spans="2:18">
       <c r="B78" s="58"/>
-      <c r="R78" s="155"/>
+      <c r="R78" s="154"/>
     </row>
     <row r="79" spans="2:18">
       <c r="B79" s="58"/>
-      <c r="R79" s="155"/>
+      <c r="R79" s="154"/>
     </row>
     <row r="80" spans="2:18">
       <c r="B80" s="58"/>
-      <c r="R80" s="155"/>
+      <c r="R80" s="154"/>
     </row>
     <row r="81" spans="2:18">
       <c r="B81" s="58"/>
-      <c r="R81" s="155"/>
+      <c r="R81" s="154"/>
     </row>
     <row r="82" spans="2:18">
       <c r="B82" s="58"/>
-      <c r="R82" s="155"/>
+      <c r="R82" s="154"/>
     </row>
     <row r="83" spans="2:18">
       <c r="B83" s="58"/>
-      <c r="R83" s="155"/>
-    </row>
-    <row r="84" spans="2:18">
-      <c r="B84" s="58"/>
-      <c r="N84"/>
-      <c r="R84" s="155"/>
-    </row>
-    <row r="85" spans="2:18" ht="17" thickBot="1">
-      <c r="B85" s="157"/>
-      <c r="C85" s="158"/>
-      <c r="D85" s="158"/>
-      <c r="E85" s="158"/>
-      <c r="F85" s="158"/>
-      <c r="G85" s="158"/>
-      <c r="H85" s="158"/>
-      <c r="I85" s="158"/>
-      <c r="J85" s="158"/>
-      <c r="K85" s="158"/>
-      <c r="L85" s="158"/>
-      <c r="M85" s="158"/>
-      <c r="N85" s="158"/>
-      <c r="O85" s="158"/>
-      <c r="P85" s="158"/>
-      <c r="Q85" s="158"/>
-      <c r="R85" s="159"/>
-    </row>
-    <row r="93" spans="2:18">
-      <c r="C93" s="120"/>
+      <c r="N83"/>
+      <c r="R83" s="154"/>
+    </row>
+    <row r="84" spans="2:18" ht="17" thickBot="1">
+      <c r="B84" s="156"/>
+      <c r="C84" s="157"/>
+      <c r="D84" s="157"/>
+      <c r="E84" s="157"/>
+      <c r="F84" s="157"/>
+      <c r="G84" s="157"/>
+      <c r="H84" s="157"/>
+      <c r="I84" s="157"/>
+      <c r="J84" s="157"/>
+      <c r="K84" s="157"/>
+      <c r="L84" s="157"/>
+      <c r="M84" s="157"/>
+      <c r="N84" s="157"/>
+      <c r="O84" s="157"/>
+      <c r="P84" s="157"/>
+      <c r="Q84" s="157"/>
+      <c r="R84" s="158"/>
+    </row>
+    <row r="92" spans="2:18">
+      <c r="C92" s="119"/>
+    </row>
+    <row r="100" spans="2:21">
+      <c r="T100" s="56" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="101" spans="2:21">
       <c r="T101" s="56" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="102" spans="2:21">
-      <c r="T102" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="U102" s="52" t="str">
+      <c r="U101" s="52" t="str">
         <f>Sources!$D$7</f>
         <v>European Hydrogen Backbone</v>
       </c>
     </row>
+    <row r="104" spans="2:21">
+      <c r="B104" s="116"/>
+      <c r="C104" s="56"/>
+    </row>
     <row r="105" spans="2:21">
-      <c r="B105" s="117"/>
-      <c r="C105" s="56"/>
+      <c r="B105" s="116"/>
+      <c r="C105" s="121"/>
     </row>
     <row r="106" spans="2:21">
-      <c r="B106" s="117"/>
-      <c r="C106" s="122"/>
+      <c r="B106" s="116"/>
     </row>
     <row r="107" spans="2:21">
-      <c r="B107" s="117"/>
+      <c r="B107" s="116"/>
     </row>
     <row r="108" spans="2:21">
-      <c r="B108" s="117"/>
+      <c r="B108" s="116"/>
     </row>
     <row r="109" spans="2:21">
-      <c r="B109" s="117"/>
+      <c r="B109" s="116"/>
     </row>
     <row r="110" spans="2:21">
-      <c r="B110" s="117"/>
+      <c r="B110" s="116"/>
     </row>
     <row r="111" spans="2:21">
-      <c r="B111" s="117"/>
+      <c r="B111" s="116"/>
     </row>
     <row r="112" spans="2:21">
-      <c r="B112" s="117"/>
+      <c r="B112" s="116"/>
     </row>
     <row r="113" spans="2:2">
-      <c r="B113" s="117"/>
+      <c r="B113" s="116"/>
     </row>
     <row r="114" spans="2:2">
-      <c r="B114" s="117"/>
+      <c r="B114" s="116"/>
     </row>
     <row r="115" spans="2:2">
-      <c r="B115" s="117"/>
+      <c r="B115" s="116"/>
     </row>
     <row r="116" spans="2:2">
-      <c r="B116" s="117"/>
+      <c r="B116" s="116"/>
     </row>
     <row r="117" spans="2:2">
-      <c r="B117" s="117"/>
+      <c r="B117" s="116"/>
     </row>
     <row r="118" spans="2:2">
-      <c r="B118" s="117"/>
+      <c r="B118" s="116"/>
     </row>
     <row r="119" spans="2:2">
-      <c r="B119" s="117"/>
+      <c r="B119" s="116"/>
     </row>
     <row r="120" spans="2:2">
-      <c r="B120" s="117"/>
+      <c r="B120" s="116"/>
     </row>
     <row r="121" spans="2:2">
-      <c r="B121" s="117"/>
+      <c r="B121" s="116"/>
     </row>
     <row r="122" spans="2:2">
-      <c r="B122" s="117"/>
+      <c r="B122" s="116"/>
     </row>
     <row r="123" spans="2:2">
-      <c r="B123" s="117"/>
+      <c r="B123" s="116"/>
     </row>
     <row r="124" spans="2:2">
-      <c r="B124" s="117"/>
+      <c r="B124" s="116"/>
     </row>
     <row r="125" spans="2:2">
-      <c r="B125" s="117"/>
+      <c r="B125" s="116"/>
     </row>
     <row r="126" spans="2:2">
-      <c r="B126" s="117"/>
+      <c r="B126" s="116"/>
     </row>
     <row r="127" spans="2:2">
-      <c r="B127" s="117"/>
+      <c r="B127" s="116"/>
     </row>
     <row r="128" spans="2:2">
-      <c r="B128" s="117"/>
+      <c r="B128" s="116"/>
     </row>
     <row r="129" spans="2:15">
-      <c r="B129" s="117"/>
+      <c r="B129" s="116"/>
     </row>
     <row r="130" spans="2:15">
-      <c r="B130" s="117"/>
+      <c r="B130" s="116"/>
     </row>
     <row r="131" spans="2:15">
-      <c r="B131" s="117"/>
+      <c r="B131" s="116"/>
     </row>
     <row r="132" spans="2:15">
-      <c r="B132" s="117"/>
+      <c r="B132" s="116"/>
     </row>
     <row r="133" spans="2:15">
-      <c r="B133" s="117"/>
+      <c r="B133" s="116"/>
     </row>
     <row r="134" spans="2:15">
-      <c r="B134" s="117"/>
+      <c r="B134" s="116"/>
     </row>
     <row r="135" spans="2:15">
-      <c r="B135" s="117"/>
+      <c r="B135" s="116"/>
     </row>
     <row r="136" spans="2:15">
-      <c r="B136" s="117"/>
+      <c r="B136" s="116"/>
+      <c r="O136" s="117"/>
     </row>
     <row r="137" spans="2:15">
-      <c r="B137" s="117"/>
-      <c r="O137" s="118"/>
+      <c r="B137" s="116"/>
     </row>
     <row r="138" spans="2:15">
-      <c r="B138" s="117"/>
+      <c r="B138" s="116"/>
     </row>
     <row r="139" spans="2:15">
-      <c r="B139" s="117"/>
+      <c r="B139" s="116"/>
     </row>
     <row r="140" spans="2:15">
-      <c r="B140" s="117"/>
+      <c r="B140" s="116"/>
     </row>
     <row r="141" spans="2:15">
-      <c r="B141" s="117"/>
+      <c r="B141" s="116"/>
     </row>
     <row r="142" spans="2:15">
-      <c r="B142" s="117"/>
+      <c r="B142" s="116"/>
     </row>
     <row r="143" spans="2:15">
-      <c r="B143" s="117"/>
+      <c r="B143" s="116"/>
     </row>
     <row r="144" spans="2:15">
-      <c r="B144" s="117"/>
+      <c r="B144" s="116"/>
     </row>
     <row r="145" spans="2:21">
-      <c r="B145" s="117"/>
+      <c r="B145" s="116"/>
     </row>
     <row r="146" spans="2:21">
-      <c r="B146" s="117"/>
+      <c r="B146" s="116"/>
     </row>
     <row r="147" spans="2:21">
-      <c r="B147" s="117"/>
+      <c r="B147" s="116"/>
     </row>
     <row r="148" spans="2:21">
-      <c r="B148" s="117"/>
+      <c r="B148" s="116"/>
     </row>
     <row r="149" spans="2:21">
-      <c r="B149" s="117"/>
+      <c r="B149" s="116"/>
     </row>
     <row r="150" spans="2:21">
-      <c r="B150" s="117"/>
+      <c r="B150" s="116"/>
     </row>
     <row r="151" spans="2:21">
-      <c r="B151" s="117"/>
+      <c r="B151" s="116"/>
     </row>
     <row r="152" spans="2:21">
-      <c r="B152" s="117"/>
+      <c r="B152" s="116"/>
     </row>
     <row r="153" spans="2:21">
-      <c r="B153" s="117"/>
+      <c r="B153" s="116"/>
     </row>
     <row r="154" spans="2:21">
-      <c r="B154" s="117"/>
+      <c r="B154" s="116"/>
     </row>
     <row r="155" spans="2:21">
-      <c r="B155" s="117"/>
+      <c r="B155" s="116"/>
     </row>
     <row r="156" spans="2:21">
-      <c r="B156" s="117"/>
+      <c r="B156" s="116"/>
     </row>
     <row r="157" spans="2:21">
-      <c r="B157" s="117"/>
+      <c r="B157" s="116"/>
     </row>
     <row r="158" spans="2:21">
-      <c r="B158" s="117"/>
+      <c r="B158" s="116"/>
+      <c r="T158" s="56" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="159" spans="2:21">
-      <c r="B159" s="117"/>
+      <c r="B159" s="116"/>
       <c r="T159" s="56" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="160" spans="2:21">
-      <c r="B160" s="117"/>
-      <c r="T160" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="U160" s="52" t="str">
+      <c r="U159" s="52" t="str">
         <f>Sources!$D$7</f>
         <v>European Hydrogen Backbone</v>
       </c>
     </row>
+    <row r="160" spans="2:21">
+      <c r="B160" s="116"/>
+    </row>
     <row r="161" spans="1:2">
-      <c r="B161" s="117"/>
+      <c r="A161" s="116"/>
+      <c r="B161" s="116"/>
     </row>
     <row r="162" spans="1:2">
-      <c r="A162" s="117"/>
-      <c r="B162" s="117"/>
+      <c r="A162" s="116"/>
+      <c r="B162" s="116"/>
     </row>
     <row r="163" spans="1:2">
-      <c r="A163" s="117"/>
-      <c r="B163" s="117"/>
+      <c r="A163" s="116"/>
+      <c r="B163" s="116"/>
     </row>
     <row r="164" spans="1:2">
-      <c r="A164" s="117"/>
-      <c r="B164" s="117"/>
+      <c r="A164" s="116"/>
+      <c r="B164" s="116"/>
     </row>
     <row r="165" spans="1:2">
-      <c r="A165" s="117"/>
-      <c r="B165" s="117"/>
+      <c r="A165" s="116"/>
+      <c r="B165" s="116"/>
     </row>
     <row r="166" spans="1:2">
-      <c r="A166" s="117"/>
-      <c r="B166" s="117"/>
+      <c r="A166" s="116"/>
+      <c r="B166" s="116"/>
     </row>
     <row r="167" spans="1:2">
-      <c r="A167" s="117"/>
-      <c r="B167" s="117"/>
+      <c r="A167" s="116"/>
+      <c r="B167" s="116"/>
     </row>
     <row r="168" spans="1:2">
-      <c r="A168" s="117"/>
-      <c r="B168" s="117"/>
+      <c r="A168" s="116"/>
+      <c r="B168" s="116"/>
     </row>
     <row r="169" spans="1:2">
-      <c r="A169" s="117"/>
-      <c r="B169" s="117"/>
+      <c r="A169" s="116"/>
+      <c r="B169" s="116"/>
     </row>
     <row r="170" spans="1:2">
-      <c r="A170" s="117"/>
-      <c r="B170" s="117"/>
+      <c r="A170" s="116"/>
+      <c r="B170" s="116"/>
     </row>
     <row r="171" spans="1:2">
-      <c r="A171" s="117"/>
-      <c r="B171" s="117"/>
+      <c r="A171" s="116"/>
+      <c r="B171" s="116"/>
     </row>
     <row r="172" spans="1:2">
-      <c r="A172" s="117"/>
-      <c r="B172" s="117"/>
+      <c r="A172" s="116"/>
+      <c r="B172" s="116"/>
     </row>
     <row r="173" spans="1:2">
-      <c r="A173" s="117"/>
-      <c r="B173" s="117"/>
+      <c r="A173" s="116"/>
+      <c r="B173" s="116"/>
     </row>
     <row r="174" spans="1:2">
-      <c r="A174" s="117"/>
-      <c r="B174" s="117"/>
+      <c r="A174" s="116"/>
+      <c r="B174" s="116"/>
     </row>
     <row r="175" spans="1:2">
-      <c r="A175" s="117"/>
-      <c r="B175" s="117"/>
+      <c r="A175" s="116"/>
+      <c r="B175" s="116"/>
     </row>
     <row r="176" spans="1:2">
-      <c r="A176" s="117"/>
-      <c r="B176" s="117"/>
+      <c r="A176" s="116"/>
+      <c r="B176" s="116"/>
     </row>
     <row r="177" spans="1:21">
-      <c r="A177" s="117"/>
-      <c r="B177" s="117"/>
+      <c r="A177" s="116"/>
+      <c r="B177" s="116"/>
+      <c r="T177" s="56" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="178" spans="1:21">
-      <c r="A178" s="117"/>
-      <c r="B178" s="117"/>
+      <c r="A178" s="116"/>
+      <c r="B178" s="116"/>
       <c r="T178" s="56" t="s">
-        <v>131</v>
+        <v>107</v>
+      </c>
+      <c r="U178" s="52" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="179" spans="1:21">
-      <c r="A179" s="117"/>
-      <c r="B179" s="117"/>
-      <c r="T179" s="56" t="s">
-        <v>107</v>
-      </c>
-      <c r="U179" s="52" t="s">
-        <v>132</v>
-      </c>
+      <c r="A179" s="116"/>
+      <c r="B179" s="116"/>
     </row>
     <row r="180" spans="1:21">
-      <c r="A180" s="117"/>
-      <c r="B180" s="117"/>
+      <c r="A180" s="116"/>
+      <c r="B180" s="116"/>
     </row>
     <row r="181" spans="1:21">
-      <c r="A181" s="117"/>
-      <c r="B181" s="117"/>
+      <c r="A181" s="116"/>
+      <c r="B181" s="116"/>
     </row>
     <row r="182" spans="1:21">
-      <c r="A182" s="117"/>
-      <c r="B182" s="117"/>
+      <c r="A182" s="116"/>
+      <c r="B182" s="116"/>
     </row>
     <row r="183" spans="1:21">
-      <c r="A183" s="117"/>
-      <c r="B183" s="117"/>
+      <c r="A183" s="116"/>
+      <c r="B183" s="116"/>
     </row>
     <row r="184" spans="1:21">
-      <c r="A184" s="117"/>
-      <c r="B184" s="117"/>
+      <c r="A184" s="116"/>
+      <c r="B184" s="116"/>
+      <c r="C184" s="56"/>
     </row>
     <row r="185" spans="1:21">
-      <c r="A185" s="117"/>
-      <c r="B185" s="117"/>
-      <c r="C185" s="56"/>
+      <c r="A185" s="116"/>
+      <c r="B185" s="116"/>
     </row>
     <row r="186" spans="1:21">
-      <c r="A186" s="117"/>
-      <c r="B186" s="117"/>
+      <c r="A186" s="116"/>
+      <c r="B186" s="116"/>
     </row>
     <row r="187" spans="1:21">
-      <c r="A187" s="117"/>
-      <c r="B187" s="117"/>
+      <c r="A187" s="116"/>
+      <c r="B187" s="116"/>
     </row>
     <row r="188" spans="1:21">
-      <c r="A188" s="117"/>
-      <c r="B188" s="117"/>
+      <c r="A188" s="116"/>
+      <c r="B188" s="116"/>
     </row>
     <row r="189" spans="1:21">
-      <c r="A189" s="117"/>
-      <c r="B189" s="117"/>
+      <c r="A189" s="116"/>
+      <c r="B189" s="116"/>
     </row>
     <row r="190" spans="1:21">
-      <c r="A190" s="117"/>
-      <c r="B190" s="117"/>
+      <c r="A190" s="116"/>
+      <c r="B190" s="116"/>
     </row>
     <row r="191" spans="1:21">
-      <c r="A191" s="117"/>
-      <c r="B191" s="117"/>
+      <c r="A191" s="116"/>
+      <c r="B191" s="116"/>
     </row>
     <row r="192" spans="1:21">
-      <c r="A192" s="117"/>
-      <c r="B192" s="117"/>
+      <c r="A192" s="116"/>
+      <c r="B192" s="116"/>
     </row>
     <row r="193" spans="1:10">
-      <c r="A193" s="117"/>
-      <c r="B193" s="117"/>
+      <c r="A193" s="116"/>
+      <c r="B193" s="116"/>
     </row>
     <row r="194" spans="1:10">
-      <c r="A194" s="117"/>
-      <c r="B194" s="117"/>
+      <c r="A194" s="116"/>
+      <c r="B194" s="116"/>
     </row>
     <row r="195" spans="1:10">
-      <c r="A195" s="117"/>
-      <c r="B195" s="117"/>
+      <c r="A195" s="116"/>
+      <c r="B195" s="116"/>
     </row>
     <row r="196" spans="1:10">
-      <c r="A196" s="117"/>
-      <c r="B196" s="117"/>
+      <c r="A196" s="116"/>
+      <c r="B196" s="116"/>
     </row>
     <row r="197" spans="1:10">
-      <c r="A197" s="117"/>
-      <c r="B197" s="117"/>
+      <c r="A197" s="116"/>
+      <c r="B197" s="116"/>
     </row>
     <row r="198" spans="1:10">
-      <c r="A198" s="117"/>
-      <c r="B198" s="117"/>
+      <c r="A198" s="116"/>
+      <c r="B198" s="116"/>
     </row>
     <row r="199" spans="1:10">
-      <c r="A199" s="117"/>
-      <c r="B199" s="117"/>
+      <c r="A199" s="116"/>
+      <c r="B199" s="116"/>
     </row>
     <row r="200" spans="1:10">
-      <c r="A200" s="117"/>
-      <c r="B200" s="117"/>
+      <c r="A200" s="116"/>
+      <c r="B200" s="116"/>
     </row>
     <row r="201" spans="1:10">
-      <c r="A201" s="117"/>
-      <c r="B201" s="117"/>
+      <c r="A201" s="116"/>
+      <c r="B201" s="116"/>
     </row>
     <row r="202" spans="1:10">
-      <c r="A202" s="117"/>
-      <c r="B202" s="117"/>
+      <c r="A202" s="116"/>
+      <c r="B202" s="116"/>
     </row>
     <row r="203" spans="1:10">
-      <c r="A203" s="117"/>
-      <c r="B203" s="117"/>
+      <c r="A203" s="116"/>
+      <c r="B203" s="116"/>
     </row>
     <row r="204" spans="1:10">
-      <c r="A204" s="117"/>
-      <c r="B204" s="117"/>
+      <c r="A204" s="116"/>
+      <c r="B204" s="116"/>
+      <c r="J204" s="104"/>
     </row>
     <row r="205" spans="1:10">
-      <c r="A205" s="117"/>
-      <c r="B205" s="117"/>
-      <c r="J205" s="105"/>
+      <c r="A205" s="116"/>
+      <c r="B205" s="116"/>
     </row>
     <row r="206" spans="1:10">
-      <c r="A206" s="117"/>
-      <c r="B206" s="117"/>
+      <c r="A206" s="116"/>
+      <c r="B206" s="116"/>
     </row>
     <row r="207" spans="1:10">
-      <c r="A207" s="117"/>
-      <c r="B207" s="117"/>
+      <c r="A207" s="116"/>
+      <c r="B207" s="116"/>
+      <c r="I207" s="105"/>
     </row>
     <row r="208" spans="1:10">
-      <c r="A208" s="117"/>
-      <c r="B208" s="117"/>
-      <c r="I208" s="106"/>
+      <c r="A208" s="116"/>
+      <c r="B208" s="116"/>
     </row>
     <row r="209" spans="1:2">
-      <c r="A209" s="117"/>
-      <c r="B209" s="117"/>
+      <c r="A209" s="116"/>
+      <c r="B209" s="116"/>
     </row>
     <row r="210" spans="1:2">
-      <c r="A210" s="117"/>
-      <c r="B210" s="117"/>
+      <c r="A210" s="116"/>
+      <c r="B210" s="116"/>
     </row>
     <row r="211" spans="1:2">
-      <c r="A211" s="117"/>
-      <c r="B211" s="117"/>
+      <c r="A211" s="116"/>
+      <c r="B211" s="116"/>
     </row>
     <row r="212" spans="1:2">
-      <c r="A212" s="117"/>
-      <c r="B212" s="117"/>
+      <c r="A212" s="116"/>
+      <c r="B212" s="116"/>
     </row>
     <row r="213" spans="1:2">
-      <c r="A213" s="117"/>
-      <c r="B213" s="117"/>
+      <c r="A213" s="116"/>
+      <c r="B213" s="116"/>
     </row>
     <row r="214" spans="1:2">
-      <c r="A214" s="117"/>
-      <c r="B214" s="117"/>
+      <c r="A214" s="116"/>
+      <c r="B214" s="116"/>
     </row>
     <row r="215" spans="1:2">
-      <c r="A215" s="117"/>
-      <c r="B215" s="117"/>
+      <c r="A215" s="116"/>
+      <c r="B215" s="116"/>
     </row>
     <row r="216" spans="1:2">
-      <c r="A216" s="117"/>
-      <c r="B216" s="117"/>
+      <c r="A216" s="116"/>
+      <c r="B216" s="116"/>
     </row>
     <row r="217" spans="1:2">
-      <c r="A217" s="117"/>
-      <c r="B217" s="117"/>
+      <c r="A217" s="116"/>
+      <c r="B217" s="116"/>
     </row>
     <row r="218" spans="1:2">
-      <c r="A218" s="117"/>
-      <c r="B218" s="117"/>
+      <c r="A218" s="116"/>
+      <c r="B218" s="116"/>
     </row>
     <row r="219" spans="1:2">
-      <c r="A219" s="117"/>
-      <c r="B219" s="117"/>
+      <c r="A219" s="116"/>
+      <c r="B219" s="116"/>
     </row>
     <row r="220" spans="1:2">
-      <c r="A220" s="117"/>
-      <c r="B220" s="117"/>
+      <c r="A220" s="116"/>
+      <c r="B220" s="116"/>
     </row>
     <row r="221" spans="1:2">
-      <c r="A221" s="117"/>
-      <c r="B221" s="117"/>
+      <c r="A221" s="116"/>
+      <c r="B221" s="116"/>
     </row>
     <row r="222" spans="1:2">
-      <c r="A222" s="117"/>
-      <c r="B222" s="117"/>
+      <c r="A222" s="116"/>
+      <c r="B222" s="116"/>
     </row>
     <row r="223" spans="1:2">
-      <c r="A223" s="117"/>
-      <c r="B223" s="117"/>
+      <c r="A223" s="116"/>
+      <c r="B223" s="116"/>
     </row>
     <row r="224" spans="1:2">
-      <c r="A224" s="117"/>
-      <c r="B224" s="117"/>
+      <c r="A224" s="116"/>
+      <c r="B224" s="116"/>
     </row>
     <row r="225" spans="1:2">
-      <c r="A225" s="117"/>
-      <c r="B225" s="117"/>
+      <c r="A225" s="116"/>
+      <c r="B225" s="116"/>
     </row>
     <row r="226" spans="1:2">
-      <c r="A226" s="117"/>
-      <c r="B226" s="117"/>
+      <c r="A226" s="116"/>
+      <c r="B226" s="116"/>
     </row>
     <row r="227" spans="1:2">
-      <c r="A227" s="117"/>
-      <c r="B227" s="117"/>
+      <c r="A227" s="116"/>
+      <c r="B227" s="116"/>
     </row>
     <row r="228" spans="1:2">
-      <c r="A228" s="117"/>
-      <c r="B228" s="117"/>
+      <c r="A228" s="116"/>
+      <c r="B228" s="116"/>
     </row>
     <row r="229" spans="1:2">
-      <c r="A229" s="117"/>
-      <c r="B229" s="117"/>
+      <c r="A229" s="116"/>
+      <c r="B229" s="116"/>
     </row>
     <row r="230" spans="1:2">
-      <c r="A230" s="117"/>
-      <c r="B230" s="117"/>
+      <c r="A230" s="116"/>
+      <c r="B230" s="116"/>
     </row>
     <row r="231" spans="1:2">
-      <c r="A231" s="117"/>
-      <c r="B231" s="117"/>
+      <c r="A231" s="116"/>
+      <c r="B231" s="116"/>
     </row>
     <row r="232" spans="1:2">
-      <c r="A232" s="117"/>
-      <c r="B232" s="117"/>
+      <c r="A232" s="116"/>
+      <c r="B232" s="116"/>
     </row>
     <row r="233" spans="1:2">
-      <c r="A233" s="117"/>
-      <c r="B233" s="117"/>
+      <c r="A233" s="116"/>
+      <c r="B233" s="116"/>
     </row>
     <row r="234" spans="1:2">
-      <c r="A234" s="117"/>
-      <c r="B234" s="117"/>
+      <c r="A234" s="116"/>
+      <c r="B234" s="116"/>
     </row>
     <row r="235" spans="1:2">
-      <c r="A235" s="117"/>
-      <c r="B235" s="117"/>
+      <c r="A235" s="116"/>
+      <c r="B235" s="116"/>
     </row>
     <row r="236" spans="1:2">
-      <c r="A236" s="117"/>
-      <c r="B236" s="117"/>
+      <c r="A236" s="116"/>
+      <c r="B236" s="116"/>
     </row>
     <row r="237" spans="1:2">
-      <c r="A237" s="117"/>
-      <c r="B237" s="117"/>
+      <c r="A237" s="116"/>
+      <c r="B237" s="116"/>
     </row>
     <row r="238" spans="1:2">
-      <c r="A238" s="117"/>
-      <c r="B238" s="117"/>
+      <c r="A238" s="116"/>
+      <c r="B238" s="116"/>
     </row>
     <row r="239" spans="1:2">
-      <c r="A239" s="117"/>
-      <c r="B239" s="117"/>
+      <c r="A239" s="116"/>
+      <c r="B239" s="116"/>
     </row>
     <row r="240" spans="1:2">
-      <c r="A240" s="117"/>
-      <c r="B240" s="117"/>
+      <c r="A240" s="116"/>
+      <c r="B240" s="116"/>
     </row>
     <row r="241" spans="1:2">
-      <c r="A241" s="117"/>
-      <c r="B241" s="117"/>
+      <c r="A241" s="116"/>
+      <c r="B241" s="116"/>
     </row>
     <row r="242" spans="1:2">
-      <c r="A242" s="117"/>
-      <c r="B242" s="117"/>
+      <c r="A242" s="116"/>
+      <c r="B242" s="116"/>
     </row>
     <row r="243" spans="1:2">
-      <c r="A243" s="117"/>
-      <c r="B243" s="117"/>
+      <c r="A243" s="116"/>
+      <c r="B243" s="116"/>
     </row>
     <row r="244" spans="1:2">
-      <c r="A244" s="117"/>
-      <c r="B244" s="117"/>
+      <c r="A244" s="116"/>
+      <c r="B244" s="116"/>
     </row>
     <row r="245" spans="1:2">
-      <c r="A245" s="117"/>
-      <c r="B245" s="117"/>
+      <c r="A245" s="116"/>
+      <c r="B245" s="116"/>
     </row>
     <row r="246" spans="1:2">
-      <c r="A246" s="117"/>
-      <c r="B246" s="117"/>
+      <c r="A246" s="116"/>
+      <c r="B246" s="116"/>
     </row>
     <row r="247" spans="1:2">
-      <c r="A247" s="117"/>
-      <c r="B247" s="117"/>
+      <c r="A247" s="116"/>
+      <c r="B247" s="116"/>
     </row>
     <row r="248" spans="1:2">
-      <c r="A248" s="117"/>
-      <c r="B248" s="117"/>
+      <c r="A248" s="116"/>
+      <c r="B248" s="116"/>
     </row>
     <row r="249" spans="1:2">
-      <c r="A249" s="117"/>
-      <c r="B249" s="117"/>
+      <c r="A249" s="116"/>
+      <c r="B249" s="116"/>
     </row>
     <row r="250" spans="1:2">
-      <c r="A250" s="117"/>
-      <c r="B250" s="117"/>
+      <c r="A250" s="116"/>
+      <c r="B250" s="116"/>
     </row>
     <row r="251" spans="1:2">
-      <c r="A251" s="117"/>
-      <c r="B251" s="117"/>
+      <c r="A251" s="116"/>
+      <c r="B251" s="116"/>
     </row>
     <row r="252" spans="1:2">
-      <c r="A252" s="117"/>
-      <c r="B252" s="117"/>
+      <c r="A252" s="116"/>
+      <c r="B252" s="116"/>
     </row>
     <row r="253" spans="1:2">
-      <c r="A253" s="117"/>
-      <c r="B253" s="117"/>
+      <c r="A253" s="116"/>
+      <c r="B253" s="116"/>
     </row>
     <row r="254" spans="1:2">
-      <c r="A254" s="117"/>
-      <c r="B254" s="117"/>
+      <c r="A254" s="116"/>
+      <c r="B254" s="116"/>
     </row>
     <row r="255" spans="1:2">
-      <c r="A255" s="117"/>
-      <c r="B255" s="117"/>
+      <c r="A255" s="116"/>
+      <c r="B255" s="116"/>
     </row>
     <row r="256" spans="1:2">
-      <c r="A256" s="117"/>
-      <c r="B256" s="117"/>
+      <c r="A256" s="116"/>
+      <c r="B256" s="116"/>
     </row>
     <row r="257" spans="1:2">
-      <c r="A257" s="117"/>
-      <c r="B257" s="117"/>
+      <c r="A257" s="116"/>
+      <c r="B257" s="116"/>
     </row>
     <row r="258" spans="1:2">
-      <c r="A258" s="117"/>
-      <c r="B258" s="117"/>
+      <c r="A258" s="116"/>
+      <c r="B258" s="116"/>
     </row>
     <row r="259" spans="1:2">
-      <c r="A259" s="117"/>
-      <c r="B259" s="117"/>
+      <c r="A259" s="116"/>
+      <c r="B259" s="116"/>
     </row>
     <row r="260" spans="1:2">
-      <c r="A260" s="117"/>
-      <c r="B260" s="117"/>
+      <c r="A260" s="116"/>
+      <c r="B260" s="116"/>
     </row>
     <row r="261" spans="1:2">
-      <c r="A261" s="117"/>
-      <c r="B261" s="117"/>
+      <c r="A261" s="116"/>
+      <c r="B261" s="116"/>
     </row>
     <row r="262" spans="1:2">
-      <c r="A262" s="117"/>
-      <c r="B262" s="117"/>
+      <c r="A262" s="116"/>
+      <c r="B262" s="116"/>
     </row>
     <row r="263" spans="1:2">
-      <c r="A263" s="117"/>
-      <c r="B263" s="117"/>
+      <c r="A263" s="116"/>
+      <c r="B263" s="116"/>
     </row>
     <row r="264" spans="1:2">
-      <c r="A264" s="117"/>
-      <c r="B264" s="117"/>
+      <c r="A264" s="116"/>
+      <c r="B264" s="116"/>
     </row>
     <row r="265" spans="1:2">
-      <c r="A265" s="117"/>
-      <c r="B265" s="117"/>
+      <c r="A265" s="116"/>
+      <c r="B265" s="116"/>
     </row>
     <row r="266" spans="1:2">
-      <c r="A266" s="117"/>
-      <c r="B266" s="117"/>
+      <c r="A266" s="116"/>
+      <c r="B266" s="116"/>
     </row>
     <row r="267" spans="1:2">
-      <c r="A267" s="117"/>
-      <c r="B267" s="117"/>
+      <c r="A267" s="116"/>
+      <c r="B267" s="116"/>
     </row>
     <row r="268" spans="1:2">
-      <c r="A268" s="117"/>
-      <c r="B268" s="117"/>
+      <c r="A268" s="116"/>
+      <c r="B268" s="116"/>
     </row>
     <row r="269" spans="1:2">
-      <c r="A269" s="117"/>
-      <c r="B269" s="117"/>
+      <c r="A269" s="116"/>
+      <c r="B269" s="116"/>
     </row>
     <row r="270" spans="1:2">
-      <c r="A270" s="117"/>
-      <c r="B270" s="117"/>
+      <c r="A270" s="116"/>
+      <c r="B270" s="116"/>
     </row>
     <row r="271" spans="1:2">
-      <c r="A271" s="117"/>
-      <c r="B271" s="117"/>
+      <c r="A271" s="116"/>
+      <c r="B271" s="116"/>
     </row>
     <row r="272" spans="1:2">
-      <c r="A272" s="117"/>
-      <c r="B272" s="117"/>
+      <c r="A272" s="116"/>
+      <c r="B272" s="116"/>
     </row>
     <row r="273" spans="1:13">
-      <c r="A273" s="117"/>
-      <c r="B273" s="117"/>
+      <c r="A273" s="116"/>
+      <c r="B273" s="116"/>
     </row>
     <row r="274" spans="1:13">
-      <c r="A274" s="117"/>
-      <c r="B274" s="117"/>
+      <c r="A274" s="116"/>
+      <c r="B274" s="116"/>
+      <c r="I274" s="116"/>
+      <c r="J274" s="116"/>
+      <c r="K274" s="116"/>
+      <c r="L274" s="116"/>
+      <c r="M274" s="116"/>
     </row>
     <row r="275" spans="1:13">
-      <c r="A275" s="117"/>
-      <c r="B275" s="117"/>
-      <c r="I275" s="117"/>
-      <c r="J275" s="117"/>
-      <c r="K275" s="117"/>
-      <c r="L275" s="117"/>
-      <c r="M275" s="117"/>
+      <c r="A275" s="116"/>
+      <c r="B275" s="116"/>
+      <c r="I275" s="116"/>
+      <c r="J275" s="116"/>
+      <c r="K275" s="116"/>
+      <c r="L275" s="116"/>
+      <c r="M275" s="116"/>
     </row>
     <row r="276" spans="1:13">
-      <c r="A276" s="117"/>
-      <c r="B276" s="117"/>
-      <c r="I276" s="117"/>
-      <c r="J276" s="117"/>
-      <c r="K276" s="117"/>
-      <c r="L276" s="117"/>
-      <c r="M276" s="117"/>
+      <c r="A276" s="116"/>
+      <c r="B276" s="116"/>
+      <c r="I276" s="116"/>
+      <c r="J276" s="116"/>
+      <c r="K276" s="116"/>
+      <c r="L276" s="116"/>
+      <c r="M276" s="116"/>
     </row>
     <row r="277" spans="1:13">
-      <c r="A277" s="117"/>
-      <c r="B277" s="117"/>
-      <c r="I277" s="117"/>
-      <c r="J277" s="117"/>
-      <c r="K277" s="117"/>
-      <c r="L277" s="117"/>
-      <c r="M277" s="117"/>
+      <c r="A277" s="116"/>
+      <c r="B277" s="116"/>
+      <c r="I277" s="116"/>
+      <c r="J277" s="116"/>
+      <c r="K277" s="116"/>
+      <c r="L277" s="116"/>
+      <c r="M277" s="116"/>
     </row>
     <row r="278" spans="1:13">
-      <c r="A278" s="117"/>
-      <c r="B278" s="117"/>
-      <c r="I278" s="117"/>
-      <c r="J278" s="117"/>
-      <c r="K278" s="117"/>
-      <c r="L278" s="117"/>
-      <c r="M278" s="117"/>
+      <c r="A278" s="116"/>
+      <c r="B278" s="116"/>
+      <c r="I278" s="116"/>
+      <c r="J278" s="116"/>
+      <c r="K278" s="116"/>
+      <c r="L278" s="116"/>
+      <c r="M278" s="116"/>
     </row>
     <row r="279" spans="1:13">
-      <c r="A279" s="117"/>
-      <c r="B279" s="117"/>
-      <c r="I279" s="117"/>
-      <c r="J279" s="117"/>
-      <c r="K279" s="117"/>
-      <c r="L279" s="117"/>
-      <c r="M279" s="117"/>
+      <c r="A279" s="116"/>
+      <c r="B279" s="116"/>
+      <c r="I279" s="116"/>
+      <c r="J279" s="116"/>
+      <c r="K279" s="116"/>
+      <c r="L279" s="116"/>
+      <c r="M279" s="116"/>
     </row>
     <row r="280" spans="1:13">
-      <c r="A280" s="117"/>
-      <c r="B280" s="117"/>
-      <c r="I280" s="117"/>
-      <c r="J280" s="117"/>
-      <c r="K280" s="117"/>
-      <c r="L280" s="117"/>
-      <c r="M280" s="117"/>
+      <c r="A280" s="116"/>
+      <c r="B280" s="116"/>
+      <c r="I280" s="116"/>
+      <c r="J280" s="116"/>
+      <c r="K280" s="116"/>
+      <c r="L280" s="116"/>
+      <c r="M280" s="116"/>
     </row>
     <row r="281" spans="1:13">
-      <c r="A281" s="117"/>
-      <c r="B281" s="117"/>
-      <c r="I281" s="117"/>
-      <c r="J281" s="117"/>
-      <c r="K281" s="117"/>
-      <c r="L281" s="117"/>
-      <c r="M281" s="117"/>
+      <c r="A281" s="116"/>
+      <c r="B281" s="116"/>
+      <c r="I281" s="116"/>
+      <c r="J281" s="116"/>
+      <c r="K281" s="116"/>
+      <c r="L281" s="116"/>
+      <c r="M281" s="116"/>
     </row>
     <row r="282" spans="1:13">
-      <c r="A282" s="117"/>
-      <c r="B282" s="117"/>
-      <c r="I282" s="117"/>
-      <c r="J282" s="117"/>
-      <c r="K282" s="117"/>
-      <c r="L282" s="117"/>
-      <c r="M282" s="117"/>
+      <c r="A282" s="116"/>
+      <c r="B282" s="116"/>
+      <c r="I282" s="116"/>
+      <c r="J282" s="116"/>
+      <c r="K282" s="116"/>
+      <c r="L282" s="116"/>
+      <c r="M282" s="116"/>
     </row>
     <row r="283" spans="1:13">
-      <c r="A283" s="117"/>
-      <c r="B283" s="117"/>
-      <c r="I283" s="117"/>
-      <c r="J283" s="117"/>
-      <c r="K283" s="117"/>
-      <c r="L283" s="117"/>
-      <c r="M283" s="117"/>
+      <c r="A283" s="116"/>
+      <c r="B283" s="116"/>
+      <c r="I283" s="116"/>
+      <c r="J283" s="116"/>
+      <c r="K283" s="116"/>
+      <c r="L283" s="116"/>
+      <c r="M283" s="116"/>
     </row>
     <row r="284" spans="1:13">
-      <c r="A284" s="117"/>
-      <c r="B284" s="117"/>
-      <c r="I284" s="117"/>
-      <c r="J284" s="117"/>
-      <c r="K284" s="117"/>
-      <c r="L284" s="117"/>
-      <c r="M284" s="117"/>
+      <c r="A284" s="116"/>
+      <c r="B284" s="116"/>
+      <c r="I284" s="116"/>
+      <c r="J284" s="116"/>
+      <c r="K284" s="116"/>
+      <c r="L284" s="116"/>
+      <c r="M284" s="116"/>
     </row>
     <row r="285" spans="1:13">
-      <c r="A285" s="117"/>
-      <c r="B285" s="117"/>
-      <c r="I285" s="117"/>
-      <c r="J285" s="117"/>
-      <c r="K285" s="117"/>
-      <c r="L285" s="117"/>
-      <c r="M285" s="117"/>
+      <c r="A285" s="116"/>
+      <c r="B285" s="116"/>
+      <c r="I285" s="116"/>
+      <c r="J285" s="116"/>
+      <c r="K285" s="116"/>
+      <c r="L285" s="116"/>
+      <c r="M285" s="116"/>
     </row>
     <row r="286" spans="1:13">
-      <c r="A286" s="117"/>
-      <c r="B286" s="117"/>
-      <c r="I286" s="117"/>
-      <c r="J286" s="117"/>
-      <c r="K286" s="117"/>
-      <c r="L286" s="117"/>
-      <c r="M286" s="117"/>
+      <c r="A286" s="116"/>
+      <c r="B286" s="116"/>
+      <c r="I286" s="116"/>
+      <c r="J286" s="116"/>
+      <c r="K286" s="116"/>
+      <c r="L286" s="116"/>
+      <c r="M286" s="116"/>
     </row>
     <row r="287" spans="1:13">
-      <c r="A287" s="117"/>
-      <c r="B287" s="117"/>
-      <c r="I287" s="117"/>
-      <c r="J287" s="117"/>
-      <c r="K287" s="117"/>
-      <c r="L287" s="117"/>
-      <c r="M287" s="117"/>
+      <c r="A287" s="116"/>
+      <c r="B287" s="116"/>
+      <c r="I287" s="116"/>
+      <c r="J287" s="116"/>
+      <c r="K287" s="116"/>
+      <c r="L287" s="116"/>
+      <c r="M287" s="116"/>
     </row>
     <row r="288" spans="1:13">
-      <c r="A288" s="117"/>
-      <c r="B288" s="117"/>
-      <c r="I288" s="117"/>
-      <c r="J288" s="117"/>
-      <c r="K288" s="117"/>
-      <c r="L288" s="117"/>
-      <c r="M288" s="117"/>
+      <c r="A288" s="116"/>
+      <c r="B288" s="116"/>
+      <c r="I288" s="116"/>
+      <c r="J288" s="116"/>
+      <c r="K288" s="116"/>
+      <c r="L288" s="116"/>
+      <c r="M288" s="116"/>
     </row>
     <row r="289" spans="1:13">
-      <c r="A289" s="117"/>
-      <c r="B289" s="117"/>
-      <c r="I289" s="117"/>
-      <c r="J289" s="117"/>
-      <c r="K289" s="117"/>
-      <c r="L289" s="117"/>
-      <c r="M289" s="117"/>
+      <c r="A289" s="116"/>
+      <c r="B289" s="116"/>
+      <c r="I289" s="116"/>
+      <c r="J289" s="116"/>
+      <c r="K289" s="116"/>
+      <c r="L289" s="116"/>
+      <c r="M289" s="116"/>
     </row>
     <row r="290" spans="1:13">
-      <c r="A290" s="117"/>
-      <c r="B290" s="117"/>
-      <c r="I290" s="117"/>
-      <c r="J290" s="117"/>
-      <c r="K290" s="117"/>
-      <c r="L290" s="117"/>
-      <c r="M290" s="117"/>
+      <c r="A290" s="116"/>
+      <c r="B290" s="116"/>
+      <c r="I290" s="116"/>
+      <c r="J290" s="116"/>
+      <c r="K290" s="116"/>
+      <c r="L290" s="116"/>
+      <c r="M290" s="116"/>
     </row>
     <row r="291" spans="1:13">
-      <c r="A291" s="117"/>
-      <c r="B291" s="117"/>
-      <c r="I291" s="117"/>
-      <c r="J291" s="117"/>
-      <c r="K291" s="117"/>
-      <c r="L291" s="117"/>
-      <c r="M291" s="117"/>
+      <c r="A291" s="116"/>
+      <c r="B291" s="116"/>
+      <c r="I291" s="116"/>
+      <c r="J291" s="116"/>
+      <c r="K291" s="116"/>
+      <c r="L291" s="116"/>
+      <c r="M291" s="116"/>
     </row>
     <row r="292" spans="1:13">
-      <c r="A292" s="117"/>
-      <c r="B292" s="117"/>
-      <c r="I292" s="117"/>
-      <c r="J292" s="117"/>
-      <c r="K292" s="117"/>
-      <c r="L292" s="117"/>
-      <c r="M292" s="117"/>
+      <c r="A292" s="116"/>
+      <c r="B292" s="116"/>
+      <c r="I292" s="116"/>
+      <c r="J292" s="116"/>
+      <c r="K292" s="116"/>
+      <c r="L292" s="116"/>
+      <c r="M292" s="116"/>
     </row>
     <row r="293" spans="1:13">
-      <c r="A293" s="117"/>
-      <c r="B293" s="117"/>
-      <c r="I293" s="117"/>
-      <c r="J293" s="117"/>
-      <c r="K293" s="117"/>
-      <c r="L293" s="117"/>
-      <c r="M293" s="117"/>
+      <c r="A293" s="116"/>
+      <c r="B293" s="116"/>
+      <c r="I293" s="116"/>
+      <c r="J293" s="116"/>
+      <c r="K293" s="116"/>
+      <c r="L293" s="116"/>
+      <c r="M293" s="116"/>
     </row>
     <row r="294" spans="1:13">
-      <c r="A294" s="117"/>
-      <c r="B294" s="117"/>
-      <c r="I294" s="117"/>
-      <c r="J294" s="117"/>
-      <c r="K294" s="117"/>
-      <c r="L294" s="117"/>
-      <c r="M294" s="117"/>
+      <c r="A294" s="116"/>
+      <c r="B294" s="116"/>
+      <c r="I294" s="116"/>
+      <c r="J294" s="116"/>
+      <c r="K294" s="116"/>
+      <c r="L294" s="116"/>
+      <c r="M294" s="116"/>
     </row>
     <row r="295" spans="1:13">
-      <c r="A295" s="117"/>
-      <c r="B295" s="117"/>
-      <c r="I295" s="117"/>
-      <c r="J295" s="117"/>
-      <c r="K295" s="117"/>
-      <c r="L295" s="117"/>
-      <c r="M295" s="117"/>
+      <c r="A295" s="116"/>
+      <c r="B295" s="116"/>
+      <c r="I295" s="116"/>
+      <c r="J295" s="116"/>
+      <c r="K295" s="116"/>
+      <c r="L295" s="116"/>
+      <c r="M295" s="116"/>
     </row>
     <row r="296" spans="1:13">
-      <c r="A296" s="117"/>
-      <c r="B296" s="117"/>
-      <c r="I296" s="117"/>
-      <c r="J296" s="117"/>
-      <c r="K296" s="117"/>
-      <c r="L296" s="117"/>
-      <c r="M296" s="117"/>
+      <c r="A296" s="116"/>
+      <c r="B296" s="116"/>
+      <c r="I296" s="116"/>
+      <c r="J296" s="116"/>
+      <c r="K296" s="116"/>
+      <c r="L296" s="116"/>
+      <c r="M296" s="116"/>
     </row>
     <row r="297" spans="1:13">
-      <c r="A297" s="117"/>
-      <c r="B297" s="117"/>
-      <c r="I297" s="117"/>
-      <c r="J297" s="117"/>
-      <c r="K297" s="117"/>
-      <c r="L297" s="117"/>
-      <c r="M297" s="117"/>
+      <c r="A297" s="116"/>
+      <c r="B297" s="116"/>
+      <c r="I297" s="116"/>
+      <c r="J297" s="116"/>
+      <c r="K297" s="116"/>
+      <c r="L297" s="116"/>
+      <c r="M297" s="116"/>
     </row>
     <row r="298" spans="1:13">
-      <c r="A298" s="117"/>
-      <c r="B298" s="117"/>
-      <c r="I298" s="117"/>
-      <c r="J298" s="117"/>
-      <c r="K298" s="117"/>
-      <c r="L298" s="117"/>
-      <c r="M298" s="117"/>
+      <c r="A298" s="116"/>
+      <c r="B298" s="116"/>
+      <c r="I298" s="116"/>
+      <c r="J298" s="116"/>
+      <c r="K298" s="116"/>
+      <c r="L298" s="116"/>
+      <c r="M298" s="116"/>
     </row>
     <row r="299" spans="1:13">
-      <c r="A299" s="117"/>
-      <c r="B299" s="117"/>
-      <c r="I299" s="117"/>
-      <c r="J299" s="117"/>
-      <c r="K299" s="117"/>
-      <c r="L299" s="117"/>
-      <c r="M299" s="117"/>
+      <c r="A299" s="116"/>
+      <c r="B299" s="116"/>
+      <c r="I299" s="116"/>
+      <c r="J299" s="116"/>
+      <c r="K299" s="116"/>
+      <c r="L299" s="116"/>
+      <c r="M299" s="116"/>
     </row>
     <row r="300" spans="1:13">
-      <c r="A300" s="117"/>
-      <c r="B300" s="117"/>
-      <c r="I300" s="117"/>
-      <c r="J300" s="117"/>
-      <c r="K300" s="117"/>
-      <c r="L300" s="117"/>
-      <c r="M300" s="117"/>
+      <c r="A300" s="116"/>
+      <c r="B300" s="116"/>
+      <c r="I300" s="116"/>
+      <c r="J300" s="116"/>
+      <c r="K300" s="116"/>
+      <c r="L300" s="116"/>
+      <c r="M300" s="116"/>
     </row>
     <row r="301" spans="1:13">
-      <c r="A301" s="117"/>
-      <c r="B301" s="117"/>
-      <c r="I301" s="117"/>
-      <c r="J301" s="117"/>
-      <c r="K301" s="117"/>
-      <c r="L301" s="117"/>
-      <c r="M301" s="117"/>
+      <c r="A301" s="116"/>
+      <c r="B301" s="116"/>
+      <c r="I301" s="116"/>
+      <c r="J301" s="116"/>
+      <c r="K301" s="116"/>
+      <c r="L301" s="116"/>
+      <c r="M301" s="116"/>
     </row>
     <row r="302" spans="1:13">
-      <c r="A302" s="117"/>
-      <c r="B302" s="117"/>
-      <c r="I302" s="117"/>
-      <c r="J302" s="117"/>
-      <c r="K302" s="117"/>
-      <c r="L302" s="117"/>
-      <c r="M302" s="117"/>
+      <c r="A302" s="116"/>
+      <c r="B302" s="116"/>
+      <c r="I302" s="116"/>
+      <c r="J302" s="116"/>
+      <c r="K302" s="116"/>
+      <c r="L302" s="116"/>
+      <c r="M302" s="116"/>
     </row>
     <row r="303" spans="1:13">
-      <c r="A303" s="117"/>
-      <c r="B303" s="117"/>
-      <c r="I303" s="117"/>
-      <c r="J303" s="117"/>
-      <c r="K303" s="117"/>
-      <c r="L303" s="117"/>
-      <c r="M303" s="117"/>
+      <c r="A303" s="116"/>
+      <c r="B303" s="116"/>
+      <c r="I303" s="116"/>
+      <c r="J303" s="116"/>
+      <c r="K303" s="116"/>
+      <c r="L303" s="116"/>
+      <c r="M303" s="116"/>
     </row>
     <row r="304" spans="1:13">
-      <c r="A304" s="117"/>
-      <c r="B304" s="117"/>
-      <c r="I304" s="117"/>
-      <c r="J304" s="117"/>
-      <c r="K304" s="117"/>
-      <c r="L304" s="117"/>
-      <c r="M304" s="117"/>
+      <c r="A304" s="116"/>
+      <c r="B304" s="116"/>
+      <c r="I304" s="116"/>
+      <c r="J304" s="116"/>
+      <c r="K304" s="116"/>
+      <c r="L304" s="116"/>
+      <c r="M304" s="116"/>
     </row>
     <row r="305" spans="1:13">
-      <c r="A305" s="117"/>
-      <c r="B305" s="117"/>
-      <c r="I305" s="117"/>
-      <c r="J305" s="117"/>
-      <c r="K305" s="117"/>
-      <c r="L305" s="117"/>
-      <c r="M305" s="117"/>
+      <c r="A305" s="116"/>
+      <c r="B305" s="116"/>
+      <c r="I305" s="116"/>
+      <c r="J305" s="116"/>
+      <c r="K305" s="116"/>
+      <c r="L305" s="116"/>
+      <c r="M305" s="116"/>
     </row>
     <row r="306" spans="1:13">
-      <c r="A306" s="117"/>
-      <c r="B306" s="117"/>
-      <c r="I306" s="117"/>
-      <c r="J306" s="117"/>
-      <c r="K306" s="117"/>
-      <c r="L306" s="117"/>
-      <c r="M306" s="117"/>
+      <c r="A306" s="116"/>
+      <c r="B306" s="116"/>
+      <c r="I306" s="116"/>
+      <c r="J306" s="116"/>
+      <c r="K306" s="116"/>
+      <c r="L306" s="116"/>
+      <c r="M306" s="116"/>
     </row>
     <row r="307" spans="1:13">
-      <c r="A307" s="117"/>
-      <c r="B307" s="117"/>
-      <c r="I307" s="117"/>
-      <c r="J307" s="117"/>
-      <c r="K307" s="117"/>
-      <c r="L307" s="117"/>
-      <c r="M307" s="117"/>
+      <c r="A307" s="116"/>
+      <c r="B307" s="116"/>
+      <c r="I307" s="116"/>
+      <c r="J307" s="116"/>
+      <c r="K307" s="116"/>
+      <c r="L307" s="116"/>
+      <c r="M307" s="116"/>
     </row>
     <row r="308" spans="1:13">
-      <c r="A308" s="117"/>
-      <c r="B308" s="117"/>
-      <c r="I308" s="117"/>
-      <c r="J308" s="117"/>
-      <c r="K308" s="117"/>
-      <c r="L308" s="117"/>
-      <c r="M308" s="117"/>
+      <c r="A308" s="116"/>
+      <c r="B308" s="116"/>
+      <c r="I308" s="116"/>
+      <c r="J308" s="116"/>
+      <c r="K308" s="116"/>
+      <c r="L308" s="116"/>
+      <c r="M308" s="116"/>
     </row>
     <row r="309" spans="1:13">
-      <c r="A309" s="117"/>
-      <c r="B309" s="117"/>
-      <c r="I309" s="117"/>
-      <c r="J309" s="117"/>
-      <c r="K309" s="117"/>
-      <c r="L309" s="117"/>
-      <c r="M309" s="117"/>
+      <c r="A309" s="116"/>
+      <c r="B309" s="116"/>
+      <c r="I309" s="116"/>
+      <c r="J309" s="116"/>
+      <c r="K309" s="116"/>
+      <c r="L309" s="116"/>
+      <c r="M309" s="116"/>
     </row>
     <row r="310" spans="1:13">
-      <c r="A310" s="117"/>
-      <c r="B310" s="117"/>
-      <c r="I310" s="117"/>
-      <c r="J310" s="117"/>
-      <c r="K310" s="117"/>
-      <c r="L310" s="117"/>
-      <c r="M310" s="117"/>
+      <c r="A310" s="116"/>
+      <c r="B310" s="116"/>
+      <c r="I310" s="116"/>
+      <c r="J310" s="116"/>
+      <c r="K310" s="116"/>
+      <c r="L310" s="116"/>
+      <c r="M310" s="116"/>
     </row>
     <row r="311" spans="1:13">
-      <c r="A311" s="117"/>
-      <c r="B311" s="117"/>
-      <c r="I311" s="117"/>
-      <c r="J311" s="117"/>
-      <c r="K311" s="117"/>
-      <c r="L311" s="117"/>
-      <c r="M311" s="117"/>
+      <c r="A311" s="116"/>
+      <c r="B311" s="116"/>
+      <c r="I311" s="116"/>
+      <c r="J311" s="116"/>
+      <c r="K311" s="116"/>
+      <c r="L311" s="116"/>
+      <c r="M311" s="116"/>
     </row>
     <row r="312" spans="1:13">
-      <c r="A312" s="117"/>
-      <c r="B312" s="117"/>
-      <c r="I312" s="117"/>
-      <c r="J312" s="117"/>
-      <c r="K312" s="117"/>
-      <c r="L312" s="117"/>
-      <c r="M312" s="117"/>
+      <c r="A312" s="116"/>
+      <c r="B312" s="116"/>
+      <c r="I312" s="116"/>
+      <c r="J312" s="116"/>
+      <c r="K312" s="116"/>
+      <c r="L312" s="116"/>
+      <c r="M312" s="116"/>
     </row>
     <row r="313" spans="1:13">
-      <c r="A313" s="117"/>
-      <c r="B313" s="117"/>
-      <c r="I313" s="117"/>
-      <c r="J313" s="117"/>
-      <c r="K313" s="117"/>
-      <c r="L313" s="117"/>
-      <c r="M313" s="117"/>
+      <c r="A313" s="116"/>
+      <c r="B313" s="116"/>
+      <c r="I313" s="116"/>
+      <c r="J313" s="116"/>
+      <c r="K313" s="116"/>
+      <c r="L313" s="116"/>
+      <c r="M313" s="116"/>
     </row>
     <row r="314" spans="1:13">
-      <c r="A314" s="117"/>
-      <c r="B314" s="117"/>
-      <c r="I314" s="117"/>
-      <c r="J314" s="117"/>
-      <c r="K314" s="117"/>
-      <c r="L314" s="117"/>
-      <c r="M314" s="117"/>
+      <c r="A314" s="116"/>
+      <c r="B314" s="116"/>
+      <c r="I314" s="116"/>
+      <c r="J314" s="116"/>
+      <c r="K314" s="116"/>
+      <c r="L314" s="116"/>
+      <c r="M314" s="116"/>
     </row>
     <row r="315" spans="1:13">
-      <c r="A315" s="117"/>
-      <c r="B315" s="117"/>
-      <c r="I315" s="117"/>
-      <c r="J315" s="117"/>
-      <c r="K315" s="117"/>
-      <c r="L315" s="117"/>
-      <c r="M315" s="117"/>
+      <c r="A315" s="116"/>
+      <c r="B315" s="116"/>
+      <c r="I315" s="116"/>
+      <c r="J315" s="116"/>
+      <c r="K315" s="116"/>
+      <c r="L315" s="116"/>
+      <c r="M315" s="116"/>
     </row>
     <row r="316" spans="1:13">
-      <c r="A316" s="117"/>
-      <c r="B316" s="117"/>
-      <c r="I316" s="117"/>
-      <c r="J316" s="117"/>
-      <c r="K316" s="117"/>
-      <c r="L316" s="117"/>
-      <c r="M316" s="117"/>
+      <c r="A316" s="116"/>
+      <c r="B316" s="116"/>
+      <c r="I316" s="116"/>
+      <c r="J316" s="116"/>
+      <c r="K316" s="116"/>
+      <c r="L316" s="116"/>
+      <c r="M316" s="116"/>
     </row>
     <row r="317" spans="1:13">
-      <c r="A317" s="117"/>
-      <c r="B317" s="117"/>
-      <c r="I317" s="117"/>
-      <c r="J317" s="117"/>
-      <c r="K317" s="117"/>
-      <c r="L317" s="117"/>
-      <c r="M317" s="117"/>
+      <c r="A317" s="116"/>
+      <c r="B317" s="116"/>
+      <c r="I317" s="116"/>
+      <c r="J317" s="116"/>
+      <c r="K317" s="116"/>
+      <c r="L317" s="116"/>
+      <c r="M317" s="116"/>
     </row>
     <row r="318" spans="1:13">
-      <c r="A318" s="117"/>
-      <c r="B318" s="117"/>
-      <c r="I318" s="117"/>
-      <c r="J318" s="117"/>
-      <c r="K318" s="117"/>
-      <c r="L318" s="117"/>
-      <c r="M318" s="117"/>
+      <c r="A318" s="116"/>
+      <c r="B318" s="116"/>
+      <c r="I318" s="116"/>
+      <c r="J318" s="116"/>
+      <c r="K318" s="116"/>
+      <c r="L318" s="116"/>
+      <c r="M318" s="116"/>
     </row>
     <row r="319" spans="1:13">
-      <c r="A319" s="117"/>
-      <c r="B319" s="117"/>
-      <c r="I319" s="117"/>
-      <c r="J319" s="117"/>
-      <c r="K319" s="117"/>
-      <c r="L319" s="117"/>
-      <c r="M319" s="117"/>
+      <c r="A319" s="116"/>
+      <c r="I319" s="116"/>
+      <c r="J319" s="116"/>
+      <c r="K319" s="116"/>
+      <c r="L319" s="116"/>
+      <c r="M319" s="116"/>
     </row>
     <row r="320" spans="1:13">
-      <c r="A320" s="117"/>
-      <c r="I320" s="117"/>
-      <c r="J320" s="117"/>
-      <c r="K320" s="117"/>
-      <c r="L320" s="117"/>
-      <c r="M320" s="117"/>
+      <c r="A320" s="116"/>
+      <c r="I320" s="116"/>
+      <c r="J320" s="116"/>
+      <c r="K320" s="116"/>
+      <c r="L320" s="116"/>
+      <c r="M320" s="116"/>
     </row>
     <row r="321" spans="1:13">
-      <c r="A321" s="117"/>
-      <c r="I321" s="117"/>
-      <c r="J321" s="117"/>
-      <c r="K321" s="117"/>
-      <c r="L321" s="117"/>
-      <c r="M321" s="117"/>
+      <c r="A321" s="116"/>
+      <c r="I321" s="116"/>
+      <c r="J321" s="116"/>
+      <c r="K321" s="116"/>
+      <c r="L321" s="116"/>
+      <c r="M321" s="116"/>
     </row>
     <row r="322" spans="1:13">
-      <c r="A322" s="117"/>
-      <c r="I322" s="117"/>
-      <c r="J322" s="117"/>
-      <c r="K322" s="117"/>
-      <c r="L322" s="117"/>
-      <c r="M322" s="117"/>
+      <c r="A322" s="116"/>
+      <c r="I322" s="116"/>
+      <c r="J322" s="116"/>
+      <c r="K322" s="116"/>
+      <c r="L322" s="116"/>
+      <c r="M322" s="116"/>
     </row>
     <row r="323" spans="1:13">
-      <c r="A323" s="117"/>
-      <c r="I323" s="117"/>
-      <c r="J323" s="117"/>
-      <c r="K323" s="117"/>
-      <c r="L323" s="117"/>
-      <c r="M323" s="117"/>
+      <c r="A323" s="116"/>
+      <c r="I323" s="116"/>
+      <c r="J323" s="116"/>
+      <c r="K323" s="116"/>
+      <c r="L323" s="116"/>
+      <c r="M323" s="116"/>
     </row>
     <row r="324" spans="1:13">
-      <c r="A324" s="117"/>
-      <c r="I324" s="117"/>
-      <c r="J324" s="117"/>
-      <c r="K324" s="117"/>
-      <c r="L324" s="117"/>
-      <c r="M324" s="117"/>
+      <c r="A324" s="116"/>
+      <c r="I324" s="116"/>
+      <c r="J324" s="116"/>
+      <c r="K324" s="116"/>
+      <c r="L324" s="116"/>
+      <c r="M324" s="116"/>
     </row>
     <row r="325" spans="1:13">
-      <c r="A325" s="117"/>
-      <c r="I325" s="117"/>
-      <c r="J325" s="117"/>
-      <c r="K325" s="117"/>
-      <c r="L325" s="117"/>
-      <c r="M325" s="117"/>
+      <c r="A325" s="116"/>
+      <c r="I325" s="116"/>
+      <c r="J325" s="116"/>
+      <c r="K325" s="116"/>
+      <c r="L325" s="116"/>
+      <c r="M325" s="116"/>
     </row>
     <row r="326" spans="1:13">
-      <c r="A326" s="117"/>
-      <c r="I326" s="117"/>
-      <c r="J326" s="117"/>
-      <c r="K326" s="117"/>
-      <c r="L326" s="117"/>
-      <c r="M326" s="117"/>
+      <c r="A326" s="116"/>
+      <c r="I326" s="116"/>
+      <c r="J326" s="116"/>
+      <c r="K326" s="116"/>
+      <c r="L326" s="116"/>
+      <c r="M326" s="116"/>
     </row>
     <row r="327" spans="1:13">
-      <c r="A327" s="117"/>
-      <c r="I327" s="117"/>
-      <c r="J327" s="117"/>
-      <c r="K327" s="117"/>
-      <c r="L327" s="117"/>
-      <c r="M327" s="117"/>
+      <c r="A327" s="116"/>
+      <c r="I327" s="116"/>
+      <c r="J327" s="116"/>
+      <c r="K327" s="116"/>
+      <c r="L327" s="116"/>
+      <c r="M327" s="116"/>
     </row>
     <row r="328" spans="1:13">
-      <c r="A328" s="117"/>
-      <c r="I328" s="117"/>
-      <c r="J328" s="117"/>
-      <c r="K328" s="117"/>
-      <c r="L328" s="117"/>
-      <c r="M328" s="117"/>
+      <c r="A328" s="116"/>
+      <c r="I328" s="116"/>
+      <c r="J328" s="116"/>
+      <c r="K328" s="116"/>
+      <c r="L328" s="116"/>
+      <c r="M328" s="116"/>
     </row>
     <row r="329" spans="1:13">
-      <c r="A329" s="117"/>
-      <c r="I329" s="117"/>
-      <c r="J329" s="117"/>
-      <c r="K329" s="117"/>
-      <c r="L329" s="117"/>
-      <c r="M329" s="117"/>
+      <c r="A329" s="116"/>
+      <c r="I329" s="116"/>
+      <c r="J329" s="116"/>
+      <c r="K329" s="116"/>
+      <c r="L329" s="116"/>
+      <c r="M329" s="116"/>
     </row>
     <row r="330" spans="1:13">
-      <c r="A330" s="117"/>
-      <c r="I330" s="117"/>
-      <c r="J330" s="117"/>
-      <c r="K330" s="117"/>
-      <c r="L330" s="117"/>
-      <c r="M330" s="117"/>
+      <c r="A330" s="116"/>
+      <c r="I330" s="116"/>
+      <c r="J330" s="116"/>
+      <c r="K330" s="116"/>
+      <c r="L330" s="116"/>
+      <c r="M330" s="116"/>
     </row>
     <row r="331" spans="1:13">
-      <c r="A331" s="117"/>
-      <c r="I331" s="117"/>
-      <c r="J331" s="117"/>
-      <c r="K331" s="117"/>
-      <c r="L331" s="117"/>
-      <c r="M331" s="117"/>
+      <c r="A331" s="116"/>
+      <c r="I331" s="116"/>
+      <c r="J331" s="116"/>
+      <c r="K331" s="116"/>
+      <c r="L331" s="116"/>
+      <c r="M331" s="116"/>
     </row>
     <row r="332" spans="1:13">
-      <c r="A332" s="117"/>
-      <c r="I332" s="117"/>
-      <c r="J332" s="117"/>
-      <c r="K332" s="117"/>
-      <c r="L332" s="117"/>
-      <c r="M332" s="117"/>
+      <c r="A332" s="116"/>
+      <c r="I332" s="116"/>
+      <c r="J332" s="116"/>
+      <c r="K332" s="116"/>
+      <c r="L332" s="116"/>
+      <c r="M332" s="116"/>
     </row>
     <row r="333" spans="1:13">
-      <c r="A333" s="117"/>
-      <c r="I333" s="117"/>
-      <c r="J333" s="117"/>
-      <c r="K333" s="117"/>
-      <c r="L333" s="117"/>
-      <c r="M333" s="117"/>
+      <c r="A333" s="116"/>
+      <c r="I333" s="116"/>
+      <c r="J333" s="116"/>
+      <c r="K333" s="116"/>
+      <c r="L333" s="116"/>
+      <c r="M333" s="116"/>
     </row>
     <row r="334" spans="1:13">
-      <c r="A334" s="117"/>
-      <c r="I334" s="117"/>
-      <c r="J334" s="117"/>
-      <c r="K334" s="117"/>
-      <c r="L334" s="117"/>
-      <c r="M334" s="117"/>
+      <c r="A334" s="116"/>
+      <c r="I334" s="116"/>
+      <c r="J334" s="116"/>
+      <c r="K334" s="116"/>
+      <c r="L334" s="116"/>
+      <c r="M334" s="116"/>
     </row>
     <row r="335" spans="1:13">
-      <c r="A335" s="117"/>
-      <c r="I335" s="117"/>
-      <c r="J335" s="117"/>
-      <c r="K335" s="117"/>
-      <c r="L335" s="117"/>
-      <c r="M335" s="117"/>
+      <c r="A335" s="116"/>
+      <c r="I335" s="116"/>
+      <c r="J335" s="116"/>
+      <c r="K335" s="116"/>
+      <c r="L335" s="116"/>
+      <c r="M335" s="116"/>
     </row>
     <row r="336" spans="1:13">
-      <c r="A336" s="117"/>
-      <c r="I336" s="117"/>
-      <c r="J336" s="117"/>
-      <c r="K336" s="117"/>
-      <c r="L336" s="117"/>
-      <c r="M336" s="117"/>
+      <c r="A336" s="116"/>
     </row>
     <row r="337" spans="1:1">
-      <c r="A337" s="117"/>
+      <c r="A337" s="116"/>
     </row>
     <row r="338" spans="1:1">
-      <c r="A338" s="117"/>
+      <c r="A338" s="116"/>
     </row>
     <row r="339" spans="1:1">
-      <c r="A339" s="117"/>
+      <c r="A339" s="116"/>
     </row>
     <row r="340" spans="1:1">
-      <c r="A340" s="117"/>
+      <c r="A340" s="116"/>
     </row>
     <row r="341" spans="1:1">
-      <c r="A341" s="117"/>
+      <c r="A341" s="116"/>
     </row>
     <row r="342" spans="1:1">
-      <c r="A342" s="117"/>
+      <c r="A342" s="116"/>
     </row>
     <row r="343" spans="1:1">
-      <c r="A343" s="117"/>
+      <c r="A343" s="116"/>
     </row>
     <row r="344" spans="1:1">
-      <c r="A344" s="117"/>
+      <c r="A344" s="116"/>
     </row>
     <row r="345" spans="1:1">
-      <c r="A345" s="117"/>
+      <c r="A345" s="116"/>
     </row>
     <row r="346" spans="1:1">
-      <c r="A346" s="117"/>
+      <c r="A346" s="116"/>
     </row>
     <row r="347" spans="1:1">
-      <c r="A347" s="117"/>
+      <c r="A347" s="116"/>
     </row>
     <row r="348" spans="1:1">
-      <c r="A348" s="117"/>
+      <c r="A348" s="116"/>
     </row>
     <row r="349" spans="1:1">
-      <c r="A349" s="117"/>
+      <c r="A349" s="116"/>
     </row>
     <row r="350" spans="1:1">
-      <c r="A350" s="117"/>
+      <c r="A350" s="116"/>
     </row>
     <row r="351" spans="1:1">
-      <c r="A351" s="117"/>
+      <c r="A351" s="116"/>
     </row>
     <row r="352" spans="1:1">
-      <c r="A352" s="117"/>
+      <c r="A352" s="116"/>
     </row>
     <row r="353" spans="1:1">
-      <c r="A353" s="117"/>
+      <c r="A353" s="116"/>
     </row>
     <row r="354" spans="1:1">
-      <c r="A354" s="117"/>
+      <c r="A354" s="116"/>
     </row>
     <row r="355" spans="1:1">
-      <c r="A355" s="117"/>
+      <c r="A355" s="116"/>
     </row>
     <row r="356" spans="1:1">
-      <c r="A356" s="117"/>
+      <c r="A356" s="116"/>
     </row>
     <row r="357" spans="1:1">
-      <c r="A357" s="117"/>
+      <c r="A357" s="116"/>
     </row>
     <row r="358" spans="1:1">
-      <c r="A358" s="117"/>
+      <c r="A358" s="116"/>
     </row>
     <row r="359" spans="1:1">
-      <c r="A359" s="117"/>
+      <c r="A359" s="116"/>
     </row>
     <row r="360" spans="1:1">
-      <c r="A360" s="117"/>
+      <c r="A360" s="116"/>
     </row>
     <row r="361" spans="1:1">
-      <c r="A361" s="117"/>
+      <c r="A361" s="116"/>
     </row>
     <row r="362" spans="1:1">
-      <c r="A362" s="117"/>
+      <c r="A362" s="116"/>
     </row>
     <row r="363" spans="1:1">
-      <c r="A363" s="117"/>
+      <c r="A363" s="116"/>
     </row>
     <row r="364" spans="1:1">
-      <c r="A364" s="117"/>
+      <c r="A364" s="116"/>
     </row>
     <row r="365" spans="1:1">
-      <c r="A365" s="117"/>
+      <c r="A365" s="116"/>
     </row>
     <row r="366" spans="1:1">
-      <c r="A366" s="117"/>
+      <c r="A366" s="116"/>
     </row>
     <row r="367" spans="1:1">
-      <c r="A367" s="117"/>
+      <c r="A367" s="116"/>
     </row>
     <row r="368" spans="1:1">
-      <c r="A368" s="117"/>
+      <c r="A368" s="116"/>
     </row>
     <row r="369" spans="1:1">
-      <c r="A369" s="117"/>
+      <c r="A369" s="116"/>
     </row>
     <row r="370" spans="1:1">
-      <c r="A370" s="117"/>
+      <c r="A370" s="116"/>
     </row>
     <row r="371" spans="1:1">
-      <c r="A371" s="117"/>
+      <c r="A371" s="116"/>
     </row>
     <row r="372" spans="1:1">
-      <c r="A372" s="117"/>
+      <c r="A372" s="116"/>
     </row>
     <row r="373" spans="1:1">
-      <c r="A373" s="117"/>
+      <c r="A373" s="116"/>
     </row>
     <row r="374" spans="1:1">
-      <c r="A374" s="117"/>
+      <c r="A374" s="116"/>
     </row>
     <row r="375" spans="1:1">
-      <c r="A375" s="117"/>
-    </row>
-    <row r="376" spans="1:1">
-      <c r="A376" s="117"/>
+      <c r="A375" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="1">
